--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="34620" windowHeight="19360"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +69,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -170,6 +166,144 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="矩形 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="24450675"/>
+          <a:ext cx="6737350" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>硬盘（块设备：随机寻址）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="矩形 222"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552824" y="26774775"/>
+          <a:ext cx="3581401" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>索引节点区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -734,6 +868,28 @@
               </a:solidFill>
             </a:rPr>
             <a:t>-mm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-fs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-file</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
             <a:solidFill>
@@ -1726,8 +1882,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4083051" y="7496175"/>
-          <a:ext cx="6861180" cy="5273698"/>
+          <a:off x="4133851" y="7029450"/>
+          <a:ext cx="6946905" cy="4949848"/>
           <a:chOff x="3028951" y="8308975"/>
           <a:chExt cx="6861180" cy="5273698"/>
         </a:xfrm>
@@ -1925,7 +2081,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1948,14 +2104,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2401,7 +2557,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2489,8 +2645,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17335500" y="17399000"/>
-          <a:ext cx="4533900" cy="3175000"/>
+          <a:off x="17551400" y="16313150"/>
+          <a:ext cx="4591050" cy="2974975"/>
           <a:chOff x="9467850" y="5629274"/>
           <a:chExt cx="4591050" cy="2981326"/>
         </a:xfrm>
@@ -2568,7 +2724,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2591,14 +2747,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2661,7 +2817,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2690,8 +2846,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1381126" y="885825"/>
-          <a:ext cx="1098548" cy="36210875"/>
+          <a:off x="1397001" y="838200"/>
+          <a:ext cx="1111248" cy="33943925"/>
           <a:chOff x="2955926" y="885825"/>
           <a:chExt cx="1098548" cy="6096007"/>
         </a:xfrm>
@@ -3383,7 +3539,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3414,8 +3570,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22453600" y="16433800"/>
-          <a:ext cx="4927600" cy="5105400"/>
+          <a:off x="22733000" y="15414625"/>
+          <a:ext cx="4987925" cy="4781550"/>
           <a:chOff x="11049000" y="5000626"/>
           <a:chExt cx="4981575" cy="4791074"/>
         </a:xfrm>
@@ -3509,7 +3665,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3532,14 +3688,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3602,7 +3758,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3633,8 +3789,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19710400" y="9728200"/>
-          <a:ext cx="5435600" cy="4191000"/>
+          <a:off x="19954875" y="9128125"/>
+          <a:ext cx="5505450" cy="3924300"/>
           <a:chOff x="15154275" y="13173075"/>
           <a:chExt cx="5514975" cy="3933825"/>
         </a:xfrm>
@@ -3843,7 +3999,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3866,14 +4022,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3936,7 +4092,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4506,7 +4662,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4965,7 +5121,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5637,8 +5793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37730545" y="35256354"/>
-          <a:ext cx="2324100" cy="12649201"/>
+          <a:off x="38200445" y="33056079"/>
+          <a:ext cx="2352675" cy="11858626"/>
           <a:chOff x="37730545" y="16434954"/>
           <a:chExt cx="2324100" cy="12649201"/>
         </a:xfrm>
@@ -5833,8 +5989,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="31394400" y="10541000"/>
-          <a:ext cx="6159500" cy="3251200"/>
+          <a:off x="31784925" y="9883775"/>
+          <a:ext cx="6235700" cy="3051175"/>
           <a:chOff x="28956000" y="9877426"/>
           <a:chExt cx="6238875" cy="3047999"/>
         </a:xfrm>
@@ -5917,7 +6073,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5940,14 +6096,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6011,7 +6167,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6297,7 +6453,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6564,7 +6720,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6595,8 +6751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2794000" y="1397000"/>
-          <a:ext cx="3352800" cy="2120900"/>
+          <a:off x="2828925" y="1311275"/>
+          <a:ext cx="3394075" cy="1987550"/>
           <a:chOff x="6912" y="983040"/>
           <a:chExt cx="3404187" cy="1979235"/>
         </a:xfrm>
@@ -6775,7 +6931,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6825,7 +6981,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6875,7 +7031,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6979,7 +7135,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7029,7 +7185,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7371,8 +7527,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28773438" y="35306000"/>
-          <a:ext cx="2324099" cy="12623800"/>
+          <a:off x="29132213" y="33105725"/>
+          <a:ext cx="2352674" cy="11833225"/>
           <a:chOff x="28773438" y="16611600"/>
           <a:chExt cx="2324099" cy="12623800"/>
         </a:xfrm>
@@ -7943,7 +8099,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8001,7 +8157,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8109,8 +8265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6362700" y="673100"/>
-          <a:ext cx="4000500" cy="2578100"/>
+          <a:off x="6442075" y="635000"/>
+          <a:ext cx="4048125" cy="2416175"/>
           <a:chOff x="3971925" y="704850"/>
           <a:chExt cx="4048125" cy="2419350"/>
         </a:xfrm>
@@ -8180,7 +8336,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8203,14 +8359,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8424,7 +8580,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8436,25 +8592,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="矩形 130"/>
+        <xdr:cNvPr id="134" name="矩形 133"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3302000" y="26352500"/>
-          <a:ext cx="6654800" cy="4165600"/>
+          <a:off x="3552825" y="33686750"/>
+          <a:ext cx="4013200" cy="701675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8490,12 +8646,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>U</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>硬盘（块设备：随机寻址）</a:t>
+            <a:t>盘（块设备：随机寻址）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8504,26 +8668,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="矩形 133"/>
+        <xdr:cNvPr id="135" name="矩形 134"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3784600" y="35915600"/>
-          <a:ext cx="3962400" cy="749300"/>
+          <a:off x="12823825" y="25374600"/>
+          <a:ext cx="2289175" cy="815975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8564,16 +8728,21 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>U</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>盘（块设备：随机寻址）</a:t>
-          </a:r>
+            <a:t>super_block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 超级块对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8581,26 +8750,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="矩形 134"/>
+        <xdr:cNvPr id="138" name="矩形 137"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12611100" y="27165300"/>
-          <a:ext cx="2260600" cy="863600"/>
+          <a:off x="12938125" y="32800925"/>
+          <a:ext cx="2070100" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8641,21 +8810,16 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>super_block</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 超级块对象</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文件对象（进程打开的文件）</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8663,26 +8827,84 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>65088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直接连接符 254"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="163" idx="3"/>
+          <a:endCxn id="135" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6588125" y="25782588"/>
+          <a:ext cx="6235700" cy="1954212"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="矩形 137"/>
+        <xdr:cNvPr id="166" name="矩形 165"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12966700" y="35382200"/>
-          <a:ext cx="2044700" cy="622300"/>
+          <a:off x="12220575" y="23028275"/>
+          <a:ext cx="15538450" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8723,7 +8945,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>file</a:t>
+            <a:t>VFS</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900">
@@ -8731,7 +8953,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>文件对象（进程打开的文件）</a:t>
+            <a:t>子系统（虚拟文件系统）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8740,84 +8962,98 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="直接连接符 254"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="163" idx="3"/>
-          <a:endCxn id="135" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="6375400" y="27597100"/>
-          <a:ext cx="6235700" cy="1854200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="矩形 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15887700" y="28625800"/>
+          <a:ext cx="1092200" cy="419100"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="3175">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:cxnSp>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>inode</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="矩形 165"/>
+        <xdr:cNvPr id="176" name="矩形 175"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12598400" y="24561800"/>
-          <a:ext cx="14820900" cy="2286000"/>
+          <a:off x="12973050" y="23650575"/>
+          <a:ext cx="2667000" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8858,7 +9094,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>VFS</a:t>
+            <a:t>block</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900">
@@ -8866,7 +9102,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>子系统（虚拟文件系统）</a:t>
+            <a:t>块（一般有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个扇区）单次读写最小单位</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8875,25 +9127,935 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>1679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直接连接符 254"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="175" idx="3"/>
+          <a:endCxn id="176" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="8572500" y="23836313"/>
+          <a:ext cx="4400550" cy="2454366"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="226" name="组合 225"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3908425" y="27095450"/>
+          <a:ext cx="2727325" cy="1079500"/>
+          <a:chOff x="3765550" y="27000200"/>
+          <a:chExt cx="2727325" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="矩形 177"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3765550" y="27000200"/>
+            <a:ext cx="2263775" cy="650875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sector</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>扇区</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>512</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>字节</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="矩形 178"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3921125" y="27143075"/>
+            <a:ext cx="2263775" cy="650875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sector</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>扇区</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>512</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>字节</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="矩形 179"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4073525" y="27285950"/>
+            <a:ext cx="2263775" cy="650875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sector</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>扇区</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>512</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>字节</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="矩形 180"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4229100" y="27428825"/>
+            <a:ext cx="2263775" cy="650875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sector</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>扇区</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>512</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>字节</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="矩形 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5480050" y="27581225"/>
+          <a:ext cx="1108075" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>超级块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="矩形 182"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="27813000"/>
+          <a:ext cx="1835150" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>硬盘介质相关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>inode.dentry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>62</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="189" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="32924750"/>
+          <a:ext cx="635000" cy="908050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15240000" y="32156400"/>
+          <a:ext cx="596900" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="190" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="32924750"/>
+          <a:ext cx="635000" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="3"/>
+          <a:endCxn id="187" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16979900" y="32156400"/>
+          <a:ext cx="685800" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="206" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="3"/>
+          <a:endCxn id="188" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16979900" y="31838900"/>
+          <a:ext cx="660400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="3"/>
+          <a:endCxn id="186" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16979900" y="31216600"/>
+          <a:ext cx="673100" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="189" idx="3"/>
+          <a:endCxn id="185" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17018000" y="33832800"/>
+          <a:ext cx="622300" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>190</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="矩形 167"/>
+        <xdr:cNvPr id="229" name="矩形 228"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15887700" y="28625800"/>
+          <a:off x="17462500" y="28625800"/>
           <a:ext cx="1092200" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8949,16 +10111,2064 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="组 99"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14052550" y="29054425"/>
+          <a:ext cx="4991100" cy="3092450"/>
+          <a:chOff x="12598400" y="30010100"/>
+          <a:chExt cx="4927600" cy="3302000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="矩形 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12598400" y="31724600"/>
+            <a:ext cx="1358900" cy="444500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dentry</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="矩形 184"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16357600" y="32854900"/>
+            <a:ext cx="1143000" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dentry</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="186" name="矩形 185"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16370300" y="30010100"/>
+            <a:ext cx="1143000" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dentry</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="187" name="矩形 186"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16383000" y="31229300"/>
+            <a:ext cx="1143000" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dentry</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="188" name="矩形 187"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16357600" y="30632400"/>
+            <a:ext cx="1143000" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dentry</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="189" name="矩形 188"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14592300" y="32626300"/>
+            <a:ext cx="1143000" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dentry</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="矩形 189"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14592300" y="31775400"/>
+            <a:ext cx="1143000" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dentry</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="矩形 190"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14554200" y="30949900"/>
+            <a:ext cx="1143000" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dentry</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="矩形 230"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20472400" y="28587700"/>
+          <a:ext cx="1092200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>inode</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="矩形 232"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18986500" y="28600400"/>
+          <a:ext cx="1092200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>inode</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>41276</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1854199" cy="1385497"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12900026" y="29375100"/>
+          <a:ext cx="1854199" cy="1385497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>目录项对象（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>dentry/dirent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>记录文件层次关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>目录名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>指向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>inode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直线箭头连接符 101"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="186" idx="3"/>
+          <a:endCxn id="233" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18796000" y="29019500"/>
+          <a:ext cx="736600" cy="2197100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="直线箭头连接符 244"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="3"/>
+          <a:endCxn id="233" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18783300" y="29019500"/>
+          <a:ext cx="749300" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2908300" cy="404854"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17386300" y="30365700"/>
+          <a:ext cx="2908300" cy="404854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>硬连接：不同名的文件名指向同一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>inode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直线箭头连接符 248"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="0"/>
+          <a:endCxn id="168" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14560550" y="29044900"/>
+          <a:ext cx="1873250" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="直线箭头连接符 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="3"/>
+          <a:endCxn id="231" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18783300" y="29006800"/>
+          <a:ext cx="2235200" cy="5054600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="256" name="直线箭头连接符 255"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="0"/>
+          <a:endCxn id="229" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16408400" y="29044900"/>
+          <a:ext cx="1600200" cy="2882900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2908300" cy="807913"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17106900" y="25841325"/>
+          <a:ext cx="2908300" cy="807913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>目录文件内容：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dirent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>目录项列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dirent1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（文件名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dirent2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（文件名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>74487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直接连接符 194"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="192" idx="2"/>
+          <a:endCxn id="229" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="18299051" y="26582625"/>
+          <a:ext cx="195387" cy="328612"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3305175" cy="1114426"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830174" y="26612849"/>
+          <a:ext cx="3305175" cy="1114426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>索引节点对象（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>记录文件字节数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rwx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>权限</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>各种访问时间</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>链接数，即有多少文件名指向这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inode</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>号数组，标识数据在磁盘位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="矩形 200"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13268325" y="23917275"/>
+          <a:ext cx="1362075" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="矩形 220"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13420725" y="24069675"/>
+          <a:ext cx="1362075" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="矩形 221"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13573125" y="24222075"/>
+          <a:ext cx="1362075" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="矩形 224"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867274" y="24669750"/>
+          <a:ext cx="4191001" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8967,8 +12177,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3632200" y="26835100"/>
-          <a:ext cx="3302000" cy="1765300"/>
+          <a:off x="5229225" y="24958675"/>
+          <a:ext cx="3343275" cy="1660525"/>
           <a:chOff x="4127500" y="27520900"/>
           <a:chExt cx="3302000" cy="1765300"/>
         </a:xfrm>
@@ -9602,26 +12812,232 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>131763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="直接连接符 254"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="181" idx="3"/>
+          <a:endCxn id="197" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6635750" y="27170062"/>
+          <a:ext cx="6194424" cy="679451"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>131763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>41276</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>64099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="直接连接符 254"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="181" idx="3"/>
+          <a:endCxn id="242" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6635750" y="27849513"/>
+          <a:ext cx="6264276" cy="2218336"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2438400" cy="657872"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7372350" y="27479624"/>
+          <a:ext cx="2438400" cy="657872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>内存中的叫</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>inode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>dentry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，不同介质中的节点组织需要抽象成内存对象，高层才不需要关系底层实现，这就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>VFS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>精髓，面向对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="矩形 175"/>
+        <xdr:cNvPr id="257" name="矩形 256"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12814300" y="25222200"/>
-          <a:ext cx="2641600" cy="800100"/>
+          <a:off x="12211050" y="35861625"/>
+          <a:ext cx="5334000" cy="790576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9662,7 +13078,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>block</a:t>
+            <a:t>sysfs</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900">
@@ -9670,7 +13086,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>块（一般有</a:t>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>典型的特殊文件，它存储的信息都是由系统动态的生成的（运行时生成</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900">
@@ -9678,7 +13110,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>inode</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900">
@@ -9686,7 +13118,55 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>个扇区）单次读写最小单位</a:t>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dentry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>），它动态的包含了整个机器的硬件资源情况从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sysfs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>读写就相当于向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>kobject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>层次结构提取数据。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9696,83 +13176,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="177" name="直接连接符 254"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="175" idx="3"/>
-          <a:endCxn id="176" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="6934200" y="25622250"/>
-          <a:ext cx="5880100" cy="2628900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="矩形 177"/>
+        <xdr:cNvPr id="258" name="矩形 257"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721100" y="28790900"/>
-          <a:ext cx="2235200" cy="698500"/>
+          <a:off x="7029450" y="37204650"/>
+          <a:ext cx="4305300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9808,37 +13230,26 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>硬件</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Sector</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>扇区</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>512</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>字节</a:t>
-          </a:r>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9846,26 +13257,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="矩形 178"/>
+        <xdr:cNvPr id="259" name="矩形 258"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3873500" y="28943300"/>
-          <a:ext cx="2235200" cy="698500"/>
+          <a:off x="7029450" y="37852350"/>
+          <a:ext cx="4305300" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9901,37 +13312,26 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>硬件</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Sector</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>扇区</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>512</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>字节</a:t>
-          </a:r>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9939,26 +13339,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="矩形 179"/>
+        <xdr:cNvPr id="263" name="矩形 262"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4025900" y="29095700"/>
-          <a:ext cx="2235200" cy="698500"/>
+          <a:off x="12220575" y="37223701"/>
+          <a:ext cx="1514475" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9999,32 +13399,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Sector</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>扇区</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>512</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>字节</a:t>
-          </a:r>
+            <a:t>kobject1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10032,26 +13413,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="矩形 180"/>
+        <xdr:cNvPr id="264" name="矩形 263"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4178300" y="29248100"/>
-          <a:ext cx="2235200" cy="698500"/>
+          <a:off x="12220575" y="37880926"/>
+          <a:ext cx="1514475" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10092,32 +13473,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Sector</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>扇区</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>512</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>字节</a:t>
-          </a:r>
+            <a:t>kobject2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10125,26 +13487,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="矩形 162"/>
+        <xdr:cNvPr id="265" name="矩形 264"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5283200" y="29286200"/>
-          <a:ext cx="1092200" cy="330200"/>
+          <a:off x="12220575" y="38557200"/>
+          <a:ext cx="1514475" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10180,12 +13542,23 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>kobject3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>超级块</a:t>
+            <a:t>虚拟硬件</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10194,26 +13567,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="矩形 182"/>
+        <xdr:cNvPr id="266" name="矩形 265"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="29527500"/>
-          <a:ext cx="1092200" cy="330200"/>
+          <a:off x="12230100" y="39309675"/>
+          <a:ext cx="1514475" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10254,16 +13627,24 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>inode</a:t>
-          </a:r>
+            <a:t>kobject4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>区</a:t>
-          </a:r>
+            <a:t>虚拟硬件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10271,389 +13652,380 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="193" name="直接箭头连接符 47"/>
+        <xdr:cNvPr id="267" name="直接连接符 254"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="3"/>
-          <a:endCxn id="189" idx="1"/>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="258" idx="3"/>
+          <a:endCxn id="263" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240000" y="32924750"/>
-          <a:ext cx="635000" cy="908050"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="11334750" y="37499926"/>
+          <a:ext cx="885825" cy="4762"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="196" name="直接箭头连接符 47"/>
+        <xdr:cNvPr id="274" name="直接连接符 254"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="3"/>
-          <a:endCxn id="191" idx="1"/>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="259" idx="3"/>
+          <a:endCxn id="264" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="15240000" y="32156400"/>
-          <a:ext cx="596900" cy="768350"/>
+          <a:off x="11334750" y="38157151"/>
+          <a:ext cx="885825" cy="4762"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="199" name="直接箭头连接符 47"/>
+        <xdr:cNvPr id="277" name="直接连接符 254"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="3"/>
-          <a:endCxn id="190" idx="1"/>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="263" idx="3"/>
+          <a:endCxn id="257" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240000" y="32924750"/>
-          <a:ext cx="635000" cy="57150"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="13735050" y="36652201"/>
+          <a:ext cx="1143000" cy="847725"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="202" name="直接箭头连接符 47"/>
+        <xdr:cNvPr id="285" name="直接连接符 254"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="191" idx="3"/>
-          <a:endCxn id="187" idx="1"/>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="264" idx="3"/>
+          <a:endCxn id="257" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16979900" y="32156400"/>
-          <a:ext cx="685800" cy="279400"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="13735050" y="36652201"/>
+          <a:ext cx="1143000" cy="1504950"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="206" name="直接箭头连接符 47"/>
+        <xdr:cNvPr id="288" name="直接连接符 254"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="191" idx="3"/>
-          <a:endCxn id="188" idx="1"/>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="265" idx="3"/>
+          <a:endCxn id="257" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="16979900" y="31838900"/>
-          <a:ext cx="660400" cy="317500"/>
+          <a:off x="13735050" y="36652201"/>
+          <a:ext cx="1143000" cy="2181224"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="213" name="直接箭头连接符 47"/>
+        <xdr:cNvPr id="293" name="直接连接符 254"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="191" idx="3"/>
-          <a:endCxn id="186" idx="1"/>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="266" idx="3"/>
+          <a:endCxn id="257" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="16979900" y="31216600"/>
-          <a:ext cx="673100" cy="939800"/>
+          <a:off x="13744575" y="36652201"/>
+          <a:ext cx="1133475" cy="2933699"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>126293</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>73731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="220" name="直接箭头连接符 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="189" idx="3"/>
-          <a:endCxn id="185" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17018000" y="33832800"/>
-          <a:ext cx="622300" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="矩形 228"/>
+        <xdr:cNvPr id="297" name="下箭头 296"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17462500" y="28625800"/>
-          <a:ext cx="1092200" cy="419100"/>
+        <a:xfrm rot="10800000">
+          <a:off x="14528093" y="35220981"/>
+          <a:ext cx="711907" cy="735894"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="3175">
           <a:solidFill>
@@ -10678,23 +14050,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>inode</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10703,38 +14063,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="100" name="组 99"/>
+        <xdr:cNvPr id="309" name="组合 308"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13881100" y="30988000"/>
-          <a:ext cx="4927600" cy="3302000"/>
-          <a:chOff x="12598400" y="30010100"/>
-          <a:chExt cx="4927600" cy="3302000"/>
+          <a:off x="13973175" y="19497675"/>
+          <a:ext cx="4438650" cy="3324225"/>
+          <a:chOff x="14068425" y="19383375"/>
+          <a:chExt cx="4438650" cy="3324225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="137" name="矩形 136"/>
+          <xdr:cNvPr id="304" name="矩形 303"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
-        <xdr:spPr>
+        <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="12598400" y="31724600"/>
-            <a:ext cx="1358900" cy="444500"/>
+            <a:off x="14068425" y="19383375"/>
+            <a:ext cx="4438650" cy="3324225"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10775,1242 +14135,125 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>dentry</a:t>
+              <a:t>task_struct</a:t>
             </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="185" name="矩形 184"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16357600" y="32854900"/>
-            <a:ext cx="1143000" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>中的</a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>dentry</a:t>
+              <a:t>file</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>相关简图</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="186" name="矩形 185"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1025" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="16370300" y="30010100"/>
-            <a:ext cx="1143000" cy="457200"/>
+            <a:off x="14220826" y="19583400"/>
+            <a:ext cx="4095750" cy="3062949"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
+          <a:effectLst/>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>dentry</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="187" name="矩形 186"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16383000" y="31229300"/>
-            <a:ext cx="1143000" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>dentry</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="188" name="矩形 187"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16357600" y="30632400"/>
-            <a:ext cx="1143000" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>dentry</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="189" name="矩形 188"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14592300" y="32626300"/>
-            <a:ext cx="1143000" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>dentry</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="190" name="矩形 189"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14592300" y="31775400"/>
-            <a:ext cx="1143000" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>dentry</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="191" name="矩形 190"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14554200" y="30949900"/>
-            <a:ext cx="1143000" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>dentry</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>246098</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>136503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="矩形 230"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20472400" y="28587700"/>
-          <a:ext cx="1092200" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>inode</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="矩形 232"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18986500" y="28600400"/>
-          <a:ext cx="1092200" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>inode</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>203201</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1854199" cy="1385497"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="TextBox 253"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11887201" y="31775400"/>
-          <a:ext cx="1854199" cy="1385497"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>目录项对象（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>dentry/dirent</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>记录文件层次关系</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>目录名</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>指向</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>inode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直线箭头连接符 101"/>
+        <xdr:cNvPr id="298" name="直接箭头连接符 93"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="186" idx="3"/>
-          <a:endCxn id="233" idx="2"/>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="304" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="18796000" y="29019500"/>
-          <a:ext cx="736600" cy="2197100"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5541969" y="12728582"/>
+          <a:ext cx="15736910" cy="1125502"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="6350">
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="245" name="直线箭头连接符 244"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="188" idx="3"/>
-          <a:endCxn id="233" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="18783300" y="29019500"/>
-          <a:ext cx="749300" cy="2819400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2908300" cy="404854"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="TextBox 253"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17386300" y="30365700"/>
-          <a:ext cx="2908300" cy="404854"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>硬连接：不同名的文件名指向同一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>inode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="249" name="直线箭头连接符 248"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="0"/>
-          <a:endCxn id="168" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14560550" y="29044900"/>
-          <a:ext cx="1873250" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="253" name="直线箭头连接符 252"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="185" idx="3"/>
-          <a:endCxn id="231" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="18783300" y="29006800"/>
-          <a:ext cx="2235200" cy="5054600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="256" name="直线箭头连接符 255"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="191" idx="0"/>
-          <a:endCxn id="229" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16408400" y="29044900"/>
-          <a:ext cx="1600200" cy="2882900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="矩形 269"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11912600" y="28663900"/>
-          <a:ext cx="2730500" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="3175">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>索引节点对象（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>inode</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>记录文件字节数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>文件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>rwx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>权限</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>各种访问时间</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>链接数，即有多少文件名指向这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>inode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-block</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>位置</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12337,21 +14580,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB169" workbookViewId="0">
-      <selection activeCell="CF206" sqref="CF206"/>
+    <sheetView tabSelected="1" topLeftCell="AV180" workbookViewId="0">
+      <selection activeCell="BW147" sqref="BW147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="45" width="3.33203125" style="1"/>
-    <col min="46" max="46" width="3.33203125" style="3"/>
-    <col min="47" max="16384" width="3.33203125" style="1"/>
+    <col min="1" max="45" width="3.375" style="1"/>
+    <col min="46" max="46" width="3.375" style="3"/>
+    <col min="47" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:47" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="12:47" s="4" customFormat="1">
       <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
@@ -12368,37 +14611,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12408,20 +14651,23 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lkd总览" sheetId="1" r:id="rId1"/>
     <sheet name="web-doc" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>https://blog.csdn.net/maopig/article/details/77800124</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,22 @@
   </si>
   <si>
     <t>https://www.cnblogs.com/mister-lv/p/6028836.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_41688455/article/details/84761811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页-块-缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存映射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2081,7 +2097,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2104,14 +2120,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2557,7 +2573,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2724,7 +2740,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2747,14 +2763,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2817,7 +2833,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3539,7 +3555,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3665,7 +3681,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3688,14 +3704,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3758,7 +3774,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3999,7 +4015,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4022,14 +4038,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4092,7 +4108,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4662,7 +4678,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5121,7 +5137,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6073,7 +6089,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6096,14 +6112,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6167,7 +6183,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6453,7 +6469,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6720,7 +6736,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6931,7 +6947,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6981,7 +6997,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7031,7 +7047,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7135,7 +7151,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7185,7 +7201,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8099,7 +8115,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8157,7 +8173,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8336,7 +8352,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8359,14 +8375,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8580,7 +8596,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8874,7 +8890,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8891,8 +8907,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>176</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -8904,7 +8920,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12220575" y="23028275"/>
-          <a:ext cx="15538450" cy="2143125"/>
+          <a:ext cx="10058400" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9174,7 +9190,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12802,7 +12818,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>字节</a:t>
+              <a:t>字节（基本寻址单元）</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -12859,7 +12875,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12917,7 +12933,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13699,7 +13715,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13757,7 +13773,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13815,7 +13831,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13873,7 +13889,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13931,7 +13947,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13989,7 +14005,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14247,7 +14263,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14256,6 +14272,2625 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="矩形 234"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146501" y="23431501"/>
+          <a:ext cx="2314574" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓冲区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="矩形 239"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26641425" y="23012401"/>
+          <a:ext cx="2338387" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>buffer_head</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓冲区头</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="243" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="235" idx="1"/>
+          <a:endCxn id="222" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="14935201" y="23526751"/>
+          <a:ext cx="14211301" cy="862012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2908300" cy="392415"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23822025" y="23202900"/>
+          <a:ext cx="2908300" cy="392415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>块被调入内存时，存放在缓冲区中，每个缓冲区与一个块对应，缓冲区头</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>记录缓冲区与块的映射关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="直接连接符 261"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="235" idx="1"/>
+          <a:endCxn id="240" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="28979813" y="23221951"/>
+          <a:ext cx="166689" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="矩形 286"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146501" y="23631526"/>
+          <a:ext cx="2314574" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓冲区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="289" name="矩形 288"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146500" y="24031575"/>
+          <a:ext cx="2314574" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓冲区片段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="矩形 289"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146500" y="24336375"/>
+          <a:ext cx="2314574" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓冲区片段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="295" name="组合 294"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24841200" y="20459700"/>
+          <a:ext cx="3524251" cy="2533650"/>
+          <a:chOff x="24841200" y="20459700"/>
+          <a:chExt cx="3524251" cy="2533650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="294" name="矩形 293"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="24841200" y="20459700"/>
+            <a:ext cx="3524251" cy="2533650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>缓冲区头</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>缓冲区</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>页关系简图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="25069801" y="20735925"/>
+            <a:ext cx="3209924" cy="2192975"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="299" name="组合 298"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24650699" y="24479250"/>
+          <a:ext cx="3286125" cy="2724151"/>
+          <a:chOff x="24784049" y="24917400"/>
+          <a:chExt cx="3286125" cy="2724151"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="296" name="矩形 295"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="24784049" y="24917400"/>
+            <a:ext cx="3286125" cy="2724151"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>结构体简介</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1026" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="24945974" y="25146000"/>
+            <a:ext cx="3052751" cy="2428875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="300" name="矩形 299"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146501" y="23155275"/>
+          <a:ext cx="2324100" cy="1523999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="301" name="矩形 300"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146500" y="24679275"/>
+          <a:ext cx="2324100" cy="1523999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="矩形 301"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146500" y="25707975"/>
+          <a:ext cx="2314574" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓冲区片段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="矩形 302"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26793825" y="24022050"/>
+          <a:ext cx="1114425" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="305" name="直接连接符 304"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="289" idx="1"/>
+          <a:endCxn id="303" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="27908250" y="24126824"/>
+          <a:ext cx="1238250" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="308" name="直接连接符 307"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="302" idx="1"/>
+          <a:endCxn id="303" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="27908250" y="24212551"/>
+          <a:ext cx="1238250" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2819400" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24041100" y="23898224"/>
+          <a:ext cx="2819400" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>io</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>操作，以页为单位，可以同时操作多个页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="313" name="直接连接符 312"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="290" idx="1"/>
+          <a:endCxn id="303" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="27908250" y="24212551"/>
+          <a:ext cx="1238250" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>136333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>136335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="321" name="直线箭头连接符 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="317" idx="3"/>
+          <a:endCxn id="318" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24250651" y="28997083"/>
+          <a:ext cx="180974" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>136335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>137923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="325" name="直线箭头连接符 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="318" idx="3"/>
+          <a:endCxn id="319" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25041225" y="28997085"/>
+          <a:ext cx="161925" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>136335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>137923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="328" name="直线箭头连接符 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="319" idx="3"/>
+          <a:endCxn id="320" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25812750" y="28997085"/>
+          <a:ext cx="161925" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>66668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>9489</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="332" name="组合 331"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="23631525" y="28070168"/>
+          <a:ext cx="2952750" cy="1371571"/>
+          <a:chOff x="23631525" y="28046536"/>
+          <a:chExt cx="2952750" cy="690389"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="317" name="矩形 316"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23641051" y="28289249"/>
+            <a:ext cx="609600" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>request</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="318" name="矩形 317"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24431625" y="28289250"/>
+            <a:ext cx="609600" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>request</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="319" name="矩形 318"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="25203150" y="28289250"/>
+            <a:ext cx="609600" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>request</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="320" name="矩形 319"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="25974675" y="28289250"/>
+            <a:ext cx="609600" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>request</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-bio...</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="331" name="TextBox 253"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23631525" y="28046536"/>
+            <a:ext cx="2743200" cy="197525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>request_queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>块设备驱动中的请求队列（来自上层文件系统的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>IO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>请求）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1390650" cy="542456"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22574250" y="28975049"/>
+          <a:ext cx="1390650" cy="542456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一个请求包含一个或多个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，表示连续的磁盘块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>120006</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="334" name="直线箭头连接符 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="331" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21271234" y="25906090"/>
+          <a:ext cx="3282307" cy="1438276"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="矩形 337"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23802975" y="30022800"/>
+          <a:ext cx="2571750" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调度程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-linux</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>电梯算法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最终期限</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调度程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>预测</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调度程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>完全公正的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>排队调度程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>空操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调度程序</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="339" name="直线箭头连接符 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="320" idx="2"/>
+          <a:endCxn id="338" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="25393651" y="29136975"/>
+          <a:ext cx="581025" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>95253</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>76204</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="342" name="直线箭头连接符 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="338" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="23741063" y="30589541"/>
+          <a:ext cx="847728" cy="1847847"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="752475" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="TextBox 253"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22688550" y="31937324"/>
+          <a:ext cx="752475" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>送入磁盘</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14583,8 +17218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV180" workbookViewId="0">
-      <selection activeCell="BW147" sqref="BW147"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="CH217" sqref="CH217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>
@@ -14612,47 +17247,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5"/>
+    <hyperlink ref="A12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
 </worksheet>

--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -2097,7 +2097,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2120,14 +2120,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2573,7 +2573,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2740,7 +2740,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2763,14 +2763,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2788,15 +2788,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>84138</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2809,8 +2809,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14173200" y="18973800"/>
-          <a:ext cx="368300" cy="0"/>
+          <a:off x="17227550" y="16330613"/>
+          <a:ext cx="323850" cy="1470025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2833,7 +2833,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3102,15 +3102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>47670</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3119,8 +3119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11358563" y="16964025"/>
-          <a:ext cx="3257550" cy="1657350"/>
+          <a:off x="14027150" y="14982825"/>
+          <a:ext cx="3200400" cy="2695575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3161,7 +3161,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>mm_struct:ask_struct</a:t>
+            <a:t>mm_struct:task_struct</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900">
@@ -3178,6 +3178,28 @@
               </a:solidFill>
             </a:rPr>
             <a:t>mm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-mmmap</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-mm_rb</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3509,30 +3531,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>196851</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>233364</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9649" name="直接箭头连接符 93"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="93" idx="1"/>
+          <a:stCxn id="250" idx="2"/>
+          <a:endCxn id="93" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3860800" y="11823700"/>
-          <a:ext cx="13195300" cy="1104900"/>
+        <a:xfrm rot="5400000">
+          <a:off x="12359482" y="10392568"/>
+          <a:ext cx="7858125" cy="1322388"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3555,7 +3577,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3681,7 +3703,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3704,14 +3726,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3774,7 +3796,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3785,16 +3807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3805,7 +3827,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19954875" y="9128125"/>
+          <a:off x="23069550" y="8928100"/>
           <a:ext cx="5505450" cy="3924300"/>
           <a:chOff x="15154275" y="13173075"/>
           <a:chExt cx="5514975" cy="3933825"/>
@@ -4015,7 +4037,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4038,14 +4060,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4058,63 +4080,6 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9653" name="直接箭头连接符 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="93" idx="0"/>
-          <a:endCxn id="128" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="11614150" y="12795250"/>
-          <a:ext cx="6286500" cy="4318000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4678,7 +4643,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5137,7 +5102,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6089,7 +6054,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6112,14 +6077,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6183,7 +6148,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6469,7 +6434,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6736,7 +6701,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6947,7 +6912,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6997,7 +6962,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7047,7 +7012,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7151,7 +7116,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7201,7 +7166,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8115,7 +8080,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8173,7 +8138,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8352,7 +8317,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8375,14 +8340,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8596,7 +8561,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8890,7 +8855,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9190,7 +9155,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12875,7 +12840,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12933,7 +12898,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13715,7 +13680,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13773,7 +13738,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13831,7 +13796,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13889,7 +13854,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13947,7 +13912,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14005,7 +13970,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14079,15 +14044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14096,7 +14061,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13973175" y="19497675"/>
+          <a:off x="13992225" y="19592925"/>
           <a:ext cx="4438650" cy="3324225"/>
           <a:chOff x="14068425" y="19383375"/>
           <a:chExt cx="4438650" cy="3324225"/>
@@ -14224,9 +14189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14239,8 +14204,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5541969" y="12728582"/>
-          <a:ext cx="15736910" cy="1125502"/>
+          <a:off x="5503869" y="12766682"/>
+          <a:ext cx="15832160" cy="1144552"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14263,7 +14228,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14539,27 +14504,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>块被调入内存时，存放在缓冲区中，每个缓冲区与一个块对应，缓冲区头</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>记录缓冲区与块的映射关系</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>块被调入内存时，存放在缓冲区中，每个缓冲区与一个块对应，缓冲区头记录缓冲区与块的映射关系</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16885,6 +16831,1214 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>送入磁盘</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="矩形 243"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="6429375"/>
+          <a:ext cx="866775" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mm_struct</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="矩形 249"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16516350" y="6429375"/>
+          <a:ext cx="866775" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mm_struct</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="矩形 250"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18773775" y="6429375"/>
+          <a:ext cx="866775" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mm_struct</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="255" name="直接箭头连接符 254"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="244" idx="3"/>
+          <a:endCxn id="250" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15268575" y="6777038"/>
+          <a:ext cx="1247775" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="直接箭头连接符 275"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="250" idx="3"/>
+          <a:endCxn id="251" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17383125" y="6777038"/>
+          <a:ext cx="1390650" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="286" name="矩形 285"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21259800" y="6438900"/>
+          <a:ext cx="866775" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mm_struct</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="306" name="直接箭头连接符 305"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="251" idx="3"/>
+          <a:endCxn id="286" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19640550" y="6777038"/>
+          <a:ext cx="1619250" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>246098</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>136502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="316" name="直接箭头连接符 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="250" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="14395457" y="3875093"/>
+          <a:ext cx="1006497" cy="4102065"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="761747" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="TextBox 325"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14135100" y="7115175"/>
+          <a:ext cx="761747" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>init</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>进程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>mm</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="995722" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="TextBox 326"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13925550" y="6124575"/>
+          <a:ext cx="995722" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>内存描述符队列</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="358" name="组合 357"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17602200" y="14678024"/>
+          <a:ext cx="3648075" cy="466725"/>
+          <a:chOff x="16421100" y="13706474"/>
+          <a:chExt cx="3648075" cy="466725"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="357" name="组合 356"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="16421100" y="13706474"/>
+            <a:ext cx="2809875" cy="466725"/>
+            <a:chOff x="16421100" y="13706474"/>
+            <a:chExt cx="2809875" cy="466725"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="349" name="矩形 348"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16421100" y="13706474"/>
+              <a:ext cx="1095375" cy="466725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>vm_are_struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="350" name="矩形 349"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17830800" y="13716001"/>
+              <a:ext cx="581025" cy="428624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>vma</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="351" name="矩形 350"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18649950" y="13716000"/>
+              <a:ext cx="581025" cy="428624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>vma</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="352" name="矩形 351"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19488150" y="13716000"/>
+            <a:ext cx="581025" cy="428624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="353" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="93" idx="3"/>
+          <a:endCxn id="349" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="17227550" y="14911387"/>
+          <a:ext cx="374650" cy="1419226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="359" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="349" idx="3"/>
+          <a:endCxn id="350" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="18697575" y="14901863"/>
+          <a:ext cx="314325" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="362" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="350" idx="3"/>
+          <a:endCxn id="351" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="19592925" y="14901862"/>
+          <a:ext cx="238125" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="365" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="351" idx="3"/>
+          <a:endCxn id="352" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20412075" y="14901862"/>
+          <a:ext cx="257175" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338828" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="TextBox 367"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16583025" y="14478000"/>
+          <a:ext cx="1338828" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>内存区域</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>链表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>红黑树</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17218,8 +18372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="CH217" sqref="CH217"/>
+    <sheetView tabSelected="1" topLeftCell="AZ90" workbookViewId="0">
+      <selection activeCell="BW112" sqref="BW112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>

--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="31960" windowHeight="20240"/>
   </bookViews>
   <sheets>
     <sheet name="lkd总览" sheetId="1" r:id="rId1"/>
@@ -73,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +187,83 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="矩形 372"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537200" y="13157200"/>
+          <a:ext cx="7035800" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>linux</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>三级页表寻址</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1898,8 +1980,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4133851" y="7029450"/>
-          <a:ext cx="6946905" cy="4949848"/>
+          <a:off x="4083051" y="7496175"/>
+          <a:ext cx="6861180" cy="5273698"/>
           <a:chOff x="3028951" y="8308975"/>
           <a:chExt cx="6861180" cy="5273698"/>
         </a:xfrm>
@@ -2097,7 +2179,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2120,14 +2202,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2573,7 +2655,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2661,8 +2743,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17551400" y="16313150"/>
-          <a:ext cx="4591050" cy="2974975"/>
+          <a:off x="17335500" y="17399000"/>
+          <a:ext cx="4533900" cy="3175000"/>
           <a:chOff x="9467850" y="5629274"/>
           <a:chExt cx="4591050" cy="2981326"/>
         </a:xfrm>
@@ -2740,7 +2822,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2763,14 +2845,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2833,7 +2915,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2862,8 +2944,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1397001" y="838200"/>
-          <a:ext cx="1111248" cy="33943925"/>
+          <a:off x="1381126" y="885825"/>
+          <a:ext cx="1098548" cy="36210875"/>
           <a:chOff x="2955926" y="885825"/>
           <a:chExt cx="1098548" cy="6096007"/>
         </a:xfrm>
@@ -3577,7 +3659,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3608,8 +3690,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22733000" y="15414625"/>
-          <a:ext cx="4987925" cy="4781550"/>
+          <a:off x="22453600" y="16433800"/>
+          <a:ext cx="4927600" cy="5105400"/>
           <a:chOff x="11049000" y="5000626"/>
           <a:chExt cx="4981575" cy="4791074"/>
         </a:xfrm>
@@ -3703,7 +3785,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3726,14 +3808,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3796,7 +3878,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3827,8 +3909,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23069550" y="8928100"/>
-          <a:ext cx="5505450" cy="3924300"/>
+          <a:off x="22786975" y="9518650"/>
+          <a:ext cx="5435600" cy="4181475"/>
           <a:chOff x="15154275" y="13173075"/>
           <a:chExt cx="5514975" cy="3933825"/>
         </a:xfrm>
@@ -4037,7 +4119,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4060,14 +4142,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4643,7 +4725,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5102,7 +5184,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5295,8 +5377,8 @@
     <xdr:from>
       <xdr:col>109</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="785215" cy="248594"/>
     <xdr:sp macro="" textlink="">
@@ -5306,7 +5388,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25130125" y="16690975"/>
+          <a:off x="27924125" y="35359975"/>
           <a:ext cx="785215" cy="248594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5774,8 +5856,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="38200445" y="33056079"/>
-          <a:ext cx="2352675" cy="11858626"/>
+          <a:off x="37730545" y="35256354"/>
+          <a:ext cx="2324100" cy="12649201"/>
           <a:chOff x="37730545" y="16434954"/>
           <a:chExt cx="2324100" cy="12649201"/>
         </a:xfrm>
@@ -5970,8 +6052,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="31784925" y="9883775"/>
-          <a:ext cx="6235700" cy="3051175"/>
+          <a:off x="31394400" y="10541000"/>
+          <a:ext cx="6159500" cy="3251200"/>
           <a:chOff x="28956000" y="9877426"/>
           <a:chExt cx="6238875" cy="3047999"/>
         </a:xfrm>
@@ -6054,7 +6136,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6077,14 +6159,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6148,7 +6230,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6434,7 +6516,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6701,7 +6783,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6732,8 +6814,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2828925" y="1311275"/>
-          <a:ext cx="3394075" cy="1987550"/>
+          <a:off x="2794000" y="1397000"/>
+          <a:ext cx="3352800" cy="2120900"/>
           <a:chOff x="6912" y="983040"/>
           <a:chExt cx="3404187" cy="1979235"/>
         </a:xfrm>
@@ -6912,7 +6994,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6962,7 +7044,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7012,7 +7094,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7116,7 +7198,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7166,7 +7248,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7508,8 +7590,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29132213" y="33105725"/>
-          <a:ext cx="2352674" cy="11833225"/>
+          <a:off x="28773438" y="35306000"/>
+          <a:ext cx="2324099" cy="12623800"/>
           <a:chOff x="28773438" y="16611600"/>
           <a:chExt cx="2324099" cy="12623800"/>
         </a:xfrm>
@@ -8080,7 +8162,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8138,7 +8220,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8246,8 +8328,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6442075" y="635000"/>
-          <a:ext cx="4048125" cy="2416175"/>
+          <a:off x="6362700" y="673100"/>
+          <a:ext cx="4000500" cy="2578100"/>
           <a:chOff x="3971925" y="704850"/>
           <a:chExt cx="4048125" cy="2419350"/>
         </a:xfrm>
@@ -8317,7 +8399,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8340,14 +8422,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8561,7 +8643,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8855,7 +8937,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9155,7 +9237,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9184,8 +9266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3908425" y="27095450"/>
-          <a:ext cx="2727325" cy="1079500"/>
+          <a:off x="3860800" y="28895675"/>
+          <a:ext cx="2695575" cy="1155700"/>
           <a:chOff x="3765550" y="27000200"/>
           <a:chExt cx="2727325" cy="1079500"/>
         </a:xfrm>
@@ -10110,8 +10192,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14052550" y="29054425"/>
-          <a:ext cx="4991100" cy="3092450"/>
+          <a:off x="13881100" y="30988000"/>
+          <a:ext cx="4927600" cy="3302000"/>
           <a:chOff x="12598400" y="30010100"/>
           <a:chExt cx="4927600" cy="3302000"/>
         </a:xfrm>
@@ -12158,8 +12240,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5229225" y="24958675"/>
-          <a:ext cx="3343275" cy="1660525"/>
+          <a:off x="5165725" y="26616025"/>
+          <a:ext cx="3302000" cy="1774825"/>
           <a:chOff x="4127500" y="27520900"/>
           <a:chExt cx="3302000" cy="1765300"/>
         </a:xfrm>
@@ -12840,7 +12922,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12898,7 +12980,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13680,7 +13762,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13738,7 +13820,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13796,7 +13878,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13854,7 +13936,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13912,7 +13994,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13970,7 +14052,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14061,8 +14143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13992225" y="19592925"/>
-          <a:ext cx="4438650" cy="3324225"/>
+          <a:off x="13820775" y="20897850"/>
+          <a:ext cx="4384675" cy="3543300"/>
           <a:chOff x="14068425" y="19383375"/>
           <a:chExt cx="4438650" cy="3324225"/>
         </a:xfrm>
@@ -14228,7 +14310,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14820,8 +14902,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24841200" y="20459700"/>
-          <a:ext cx="3524251" cy="2533650"/>
+          <a:off x="24536400" y="21821775"/>
+          <a:ext cx="3479801" cy="2695575"/>
           <a:chOff x="24841200" y="20459700"/>
           <a:chExt cx="3524251" cy="2533650"/>
         </a:xfrm>
@@ -14967,8 +15049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24650699" y="24479250"/>
-          <a:ext cx="3286125" cy="2724151"/>
+          <a:off x="24349074" y="26108025"/>
+          <a:ext cx="3244850" cy="2905126"/>
           <a:chOff x="24784049" y="24917400"/>
           <a:chExt cx="3286125" cy="2724151"/>
         </a:xfrm>
@@ -15814,8 +15896,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23631525" y="28070168"/>
-          <a:ext cx="2952750" cy="1371571"/>
+          <a:off x="23342600" y="29937068"/>
+          <a:ext cx="2914650" cy="1466821"/>
           <a:chOff x="23631525" y="28046536"/>
           <a:chExt cx="2952750" cy="690389"/>
         </a:xfrm>
@@ -17314,7 +17396,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17443,182 +17525,1415 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>61399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>31239</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="353" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="93" idx="3"/>
+          <a:endCxn id="368" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="17018000" y="12405799"/>
+          <a:ext cx="285239" cy="5005901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>43428</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>71108</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="359" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="349" idx="2"/>
+          <a:endCxn id="350" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="18839428" y="14366875"/>
+          <a:ext cx="27680" cy="187910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>43428</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>74451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>50260</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>13284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="362" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="350" idx="2"/>
+          <a:endCxn id="351" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18839428" y="15009651"/>
+          <a:ext cx="6832" cy="243633"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>142145</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>87733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>36933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="365" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="278" idx="3"/>
+          <a:endCxn id="336" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19954145" y="11974933"/>
+          <a:ext cx="962755" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338828" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="TextBox 367"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16633825" y="12163425"/>
+          <a:ext cx="1338828" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>内存区域</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>链表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>红黑树</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="358" name="组合 357"/>
+        <xdr:cNvPr id="85" name="组 84"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17602200" y="14678024"/>
-          <a:ext cx="3648075" cy="466725"/>
-          <a:chOff x="16421100" y="13706474"/>
-          <a:chExt cx="3648075" cy="466725"/>
+          <a:off x="22555200" y="13957300"/>
+          <a:ext cx="1181100" cy="1295400"/>
+          <a:chOff x="22275800" y="14300200"/>
+          <a:chExt cx="1181100" cy="1295400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="268" name="矩形 267"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22275800" y="14300200"/>
+            <a:ext cx="1181100" cy="254000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>用户空间线程栈</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="270" name="矩形 269"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22275800" y="14617700"/>
+            <a:ext cx="1181100" cy="254000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>用户空间线程栈</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="273" name="矩形 272"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22275800" y="14973300"/>
+            <a:ext cx="1181100" cy="254000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>内存映射文件</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="275" name="矩形 274"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22275800" y="15341600"/>
+            <a:ext cx="1181100" cy="254000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>libc</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>218345</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>99266</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="组 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18529300" y="11747500"/>
+          <a:ext cx="1755045" cy="1762966"/>
+          <a:chOff x="18719800" y="13322300"/>
+          <a:chExt cx="1755045" cy="1762966"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="278" name="矩形 277"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19570700" y="13322300"/>
+            <a:ext cx="573945" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="279" name="矩形 278"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19062700" y="13944600"/>
+            <a:ext cx="573945" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="307" name="矩形 306"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19900900" y="13944600"/>
+            <a:ext cx="573945" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="310" name="矩形 309"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18719800" y="14630400"/>
+            <a:ext cx="573945" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="311" name="矩形 310"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19507200" y="14630400"/>
+            <a:ext cx="573945" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>109173</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>10366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>109173</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="314" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="278" idx="2"/>
+          <a:endCxn id="279" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="19159173" y="12202366"/>
+          <a:ext cx="508000" cy="167434"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>109173</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>10366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>185373</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="315" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="278" idx="2"/>
+          <a:endCxn id="307" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19667173" y="12202366"/>
+          <a:ext cx="330200" cy="167434"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>20273</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>23066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>109173</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="322" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="279" idx="2"/>
+          <a:endCxn id="310" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="18816273" y="12824666"/>
+          <a:ext cx="342900" cy="230934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>109173</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>23066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>45673</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="323" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="279" idx="2"/>
+          <a:endCxn id="311" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19159173" y="12824666"/>
+          <a:ext cx="444500" cy="230934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>38094</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>104122</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>64341</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="67" name="组 66"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18326094" y="13871575"/>
+          <a:ext cx="1082028" cy="3109166"/>
+          <a:chOff x="18872194" y="14392275"/>
+          <a:chExt cx="1082028" cy="3109166"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="357" name="组合 356"/>
+          <xdr:cNvPr id="358" name="组合 357"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="16421100" y="13706474"/>
-            <a:ext cx="2809875" cy="466725"/>
+            <a:off x="18872194" y="14392275"/>
+            <a:ext cx="1082028" cy="2471576"/>
             <a:chOff x="16421100" y="13706474"/>
-            <a:chExt cx="2809875" cy="466725"/>
+            <a:chExt cx="1095375" cy="2328985"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="349" name="矩形 348"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="357" name="组合 356"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="16421100" y="13706474"/>
-              <a:ext cx="1095375" cy="466725"/>
+              <a:ext cx="1095375" cy="1730619"/>
+              <a:chOff x="16421100" y="13706474"/>
+              <a:chExt cx="1095375" cy="1730619"/>
             </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="349" name="矩形 348"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="16421100" y="13706474"/>
+                <a:ext cx="1095375" cy="466725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" indent="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>vm_are_struct</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>vm_are_struct</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="350" name="矩形 349"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="16639662" y="14350268"/>
+                <a:ext cx="602207" cy="428624"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="3175">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="350" name="矩形 349"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="17830800" y="13716001"/>
-              <a:ext cx="581025" cy="428624"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" indent="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>vma</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>vma</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="351" name="矩形 350"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="16657169" y="15008469"/>
+                <a:ext cx="581025" cy="428624"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="3175">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" indent="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>vma</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="351" name="矩形 350"/>
+            <xdr:cNvPr id="352" name="矩形 351"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="18649950" y="13716000"/>
-              <a:ext cx="581025" cy="428624"/>
+              <a:off x="16672544" y="15606835"/>
+              <a:ext cx="581024" cy="428624"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17678,13 +18993,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="352" name="矩形 351"/>
+          <xdr:cNvPr id="324" name="矩形 323"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="19488150" y="13716000"/>
-            <a:ext cx="581025" cy="428624"/>
+            <a:off x="19113494" y="17046575"/>
+            <a:ext cx="573944" cy="454866"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -17746,30 +19061,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>58366</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>36351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>65446</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="353" name="直接箭头连接符 83"/>
+        <xdr:cNvPr id="329" name="直接箭头连接符 83"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="93" idx="3"/>
-          <a:endCxn id="349" idx="1"/>
+          <a:stCxn id="352" idx="2"/>
+          <a:endCxn id="324" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="17227550" y="14911387"/>
-          <a:ext cx="374650" cy="1419226"/>
+        <a:xfrm flipH="1">
+          <a:off x="18854366" y="16343151"/>
+          <a:ext cx="7080" cy="182724"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17792,7 +19107,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17803,30 +19118,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>192653</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>87733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>92612</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="359" name="直接箭头连接符 83"/>
+        <xdr:cNvPr id="330" name="直接箭头连接符 83"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="349" idx="3"/>
-          <a:endCxn id="350" idx="1"/>
+          <a:stCxn id="368" idx="3"/>
+          <a:endCxn id="278" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="18697575" y="14901863"/>
-          <a:ext cx="314325" cy="9524"/>
+          <a:off x="17972653" y="11974933"/>
+          <a:ext cx="1407547" cy="309679"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17849,7 +19164,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17860,30 +19175,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>192653</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>92612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>38094</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="362" name="直接箭头连接符 83"/>
+        <xdr:cNvPr id="335" name="直接箭头连接符 83"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="350" idx="3"/>
-          <a:endCxn id="351" idx="1"/>
+          <a:stCxn id="368" idx="3"/>
+          <a:endCxn id="349" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="19592925" y="14901862"/>
-          <a:ext cx="238125" cy="1"/>
+        <a:xfrm>
+          <a:off x="17972653" y="12284612"/>
+          <a:ext cx="353441" cy="1834613"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17906,7 +19221,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17917,30 +19232,494 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>124666</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="81" name="组 80"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20916900" y="12763500"/>
+          <a:ext cx="939800" cy="2601166"/>
+          <a:chOff x="20599400" y="13131800"/>
+          <a:chExt cx="939800" cy="2601166"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="336" name="矩形 335"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20599400" y="13131800"/>
+            <a:ext cx="927100" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>strcut</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="337" name="矩形 336"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20599400" y="13639800"/>
+            <a:ext cx="927100" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>strcut</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="340" name="矩形 339"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20599400" y="14173200"/>
+            <a:ext cx="927100" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>strcut</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="341" name="矩形 340"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20612100" y="15278100"/>
+            <a:ext cx="927100" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>strcut</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="343" name="矩形 342"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20599400" y="14732000"/>
+            <a:ext cx="927100" cy="454866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>vma</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>strcut</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>104122</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>36933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="365" name="直接箭头连接符 83"/>
+        <xdr:cNvPr id="344" name="直接箭头连接符 83"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="351" idx="3"/>
-          <a:endCxn id="352" idx="1"/>
+          <a:stCxn id="349" idx="3"/>
+          <a:endCxn id="336" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20412075" y="14901862"/>
-          <a:ext cx="257175" cy="1588"/>
+        <a:xfrm flipV="1">
+          <a:off x="19408122" y="12990933"/>
+          <a:ext cx="1508778" cy="1128292"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17963,7 +19742,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17972,79 +19751,2689 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>36933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="346" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="336" idx="3"/>
+          <a:endCxn id="268" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21844000" y="12990933"/>
+          <a:ext cx="711200" cy="1093367"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>87733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="347" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="337" idx="3"/>
+          <a:endCxn id="273" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21844000" y="13498933"/>
+          <a:ext cx="711200" cy="1258467"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="94" name="组 93"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11188700" y="14947900"/>
+          <a:ext cx="1092200" cy="1498600"/>
+          <a:chOff x="16713200" y="10007600"/>
+          <a:chExt cx="1092200" cy="1498600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="348" name="矩形 347"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16713200" y="10007600"/>
+            <a:ext cx="1092200" cy="1498600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PGD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页全局目录</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="356" name="矩形 355"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16776700" y="10299700"/>
+            <a:ext cx="939800" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PGD_t</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="360" name="矩形 359"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16776700" y="10604500"/>
+            <a:ext cx="939800" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PGD_t</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="361" name="矩形 360"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16776700" y="10934700"/>
+            <a:ext cx="939800" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PGD_t</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="组 91"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9613900" y="14401800"/>
+          <a:ext cx="1143000" cy="1003300"/>
+          <a:chOff x="18567400" y="9956800"/>
+          <a:chExt cx="1143000" cy="1003300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="354" name="矩形 353"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18567400" y="9956800"/>
+            <a:ext cx="1143000" cy="1003300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PMD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页中间目录</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="363" name="矩形 362"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18643600" y="10236200"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PMD_t</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="364" name="矩形 363"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18656300" y="10579100"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PMD_t</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1338828" cy="242374"/>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="91" name="组 90"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8115300" y="16294100"/>
+          <a:ext cx="1143000" cy="825500"/>
+          <a:chOff x="20320000" y="9613900"/>
+          <a:chExt cx="1143000" cy="825500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="355" name="矩形 354"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20320000" y="9613900"/>
+            <a:ext cx="1143000" cy="825500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="366" name="矩形 365"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20396200" y="9842500"/>
+            <a:ext cx="1016000" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE_t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="367" name="矩形 366"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20408900" y="10121900"/>
+            <a:ext cx="1016000" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE_t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="374" name="组 373"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9639300" y="16002000"/>
+          <a:ext cx="1143000" cy="1003300"/>
+          <a:chOff x="18567400" y="9956800"/>
+          <a:chExt cx="1143000" cy="1003300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="375" name="矩形 374"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18567400" y="9956800"/>
+            <a:ext cx="1143000" cy="1003300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PMD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页中间目录</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="376" name="矩形 375"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18643600" y="10236200"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PMD_t</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="377" name="矩形 376"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18656300" y="10579100"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PMD_t</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="378" name="组 377"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8102600" y="13741400"/>
+          <a:ext cx="1143000" cy="825500"/>
+          <a:chOff x="20320000" y="9613900"/>
+          <a:chExt cx="1143000" cy="825500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="379" name="矩形 378"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20320000" y="9613900"/>
+            <a:ext cx="1143000" cy="825500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="380" name="矩形 379"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20396200" y="9842500"/>
+            <a:ext cx="1016000" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE_t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="381" name="矩形 380"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20408900" y="10121900"/>
+            <a:ext cx="1016000" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE_t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="382" name="组 381"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8115300" y="15024100"/>
+          <a:ext cx="1143000" cy="825500"/>
+          <a:chOff x="20320000" y="9613900"/>
+          <a:chExt cx="1143000" cy="825500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="383" name="矩形 382"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20320000" y="9613900"/>
+            <a:ext cx="1143000" cy="825500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="384" name="矩形 383"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20396200" y="9842500"/>
+            <a:ext cx="1016000" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE_t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="385" name="矩形 384"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20408900" y="10121900"/>
+            <a:ext cx="1016000" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE_t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="386" name="组 385"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8115300" y="17360900"/>
+          <a:ext cx="1143000" cy="825500"/>
+          <a:chOff x="20320000" y="9613900"/>
+          <a:chExt cx="1143000" cy="825500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="387" name="矩形 386"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20320000" y="9613900"/>
+            <a:ext cx="1143000" cy="825500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="388" name="矩形 387"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20396200" y="9842500"/>
+            <a:ext cx="1016000" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE_t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="389" name="矩形 388"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20408900" y="10121900"/>
+            <a:ext cx="1016000" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>PTE_t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>页表项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="组 108"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5918200" y="13843000"/>
+          <a:ext cx="1346200" cy="4381500"/>
+          <a:chOff x="4572000" y="14211300"/>
+          <a:chExt cx="1346200" cy="4381500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="369" name="矩形 368"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4584700" y="14211300"/>
+            <a:ext cx="1320800" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>物理页面结构</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="371" name="矩形 370"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4572000" y="15201900"/>
+            <a:ext cx="1320800" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>物理页面结构</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="390" name="矩形 389"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4572000" y="16065500"/>
+            <a:ext cx="1320800" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>物理页面结构</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="391" name="矩形 390"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4597400" y="17043400"/>
+            <a:ext cx="1320800" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>物理页面结构</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="392" name="矩形 391"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4597400" y="17945100"/>
+            <a:ext cx="1320800" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>物理页面结构</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="393" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="356" idx="1"/>
+          <a:endCxn id="354" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10756900" y="14903450"/>
+          <a:ext cx="495300" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="394" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="364" idx="1"/>
+          <a:endCxn id="383" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="9258300" y="15144750"/>
+          <a:ext cx="444500" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="395" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="385" idx="1"/>
+          <a:endCxn id="390" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="7239000" y="15640050"/>
+          <a:ext cx="965200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="TextBox 367"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="396" name="矩形 395"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16583025" y="14478000"/>
-          <a:ext cx="1338828" cy="242374"/>
+          <a:off x="1371600" y="16497300"/>
+          <a:ext cx="1104900" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="3175">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>内存区域</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>链表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>红黑树</a:t>
-          </a:r>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>物理页</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4k</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="397" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="390" idx="1"/>
+          <a:endCxn id="396" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2476500" y="16021050"/>
+          <a:ext cx="3441700" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="398" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:endCxn id="348" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12280900" y="15697200"/>
+          <a:ext cx="1143000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="37999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="399" name="矩形 398"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12471400" y="14744700"/>
+          <a:ext cx="1790700" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>虚拟地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0x12345678</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>分段后进行页表寻址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>比如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PGD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>索引，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PMD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>索引</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18369,21 +22758,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ90" workbookViewId="0">
-      <selection activeCell="BW112" sqref="BW112"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="O116" sqref="O116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="45" width="3.375" style="1"/>
-    <col min="46" max="46" width="3.375" style="3"/>
-    <col min="47" max="16384" width="3.375" style="1"/>
+    <col min="1" max="45" width="3.33203125" style="1"/>
+    <col min="46" max="46" width="3.33203125" style="3"/>
+    <col min="47" max="16384" width="3.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:47" s="4" customFormat="1">
+    <row r="1" spans="12:47" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
@@ -18400,56 +22789,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -18469,12 +22858,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>

--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>https://blog.csdn.net/maopig/article/details/77800124</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>内存映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓冲区与页高速缓存</t>
+    <rPh sb="0" eb="1">
+      <t>huan chogn qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao su</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huan cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/gtopia/article/details/24911235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.chinaunix.net/thread-1983933-1-1.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14392,15 +14419,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14410,8 +14437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26641425" y="23012401"/>
-          <a:ext cx="2338387" cy="419100"/>
+          <a:off x="31318200" y="25460326"/>
+          <a:ext cx="2309812" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14529,10 +14556,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2908300" cy="392415"/>
     <xdr:sp macro="" textlink="">
@@ -14542,7 +14569,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23822025" y="23202900"/>
+          <a:off x="32559625" y="25165050"/>
           <a:ext cx="2908300" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14595,29 +14622,28 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>112</xdr:col>
-      <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>85727</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="262" name="直接连接符 261"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="235" idx="1"/>
-          <a:endCxn id="240" idx="3"/>
+          <a:endCxn id="240" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="28979813" y="23221951"/>
-          <a:ext cx="166689" cy="304800"/>
+        <a:xfrm>
+          <a:off x="31064200" y="25133300"/>
+          <a:ext cx="254000" cy="550864"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14884,16 +14910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14902,7 +14928,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24536400" y="21821775"/>
+          <a:off x="31369000" y="26038175"/>
           <a:ext cx="3479801" cy="2695575"/>
           <a:chOff x="24841200" y="20459700"/>
           <a:chExt cx="3524251" cy="2533650"/>
@@ -15031,16 +15057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>225424</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -15049,7 +15075,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24349074" y="26108025"/>
+          <a:off x="25174574" y="26069925"/>
           <a:ext cx="3244850" cy="2905126"/>
           <a:chOff x="24784049" y="24917400"/>
           <a:chExt cx="3286125" cy="2724151"/>
@@ -15372,16 +15398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>104</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>108</xdr:col>
+      <xdr:col>112</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15390,8 +15416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26793825" y="24022050"/>
-          <a:ext cx="1114425" cy="381000"/>
+          <a:off x="27479625" y="25558750"/>
+          <a:ext cx="1101725" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15476,16 +15502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>108</xdr:col>
+      <xdr:col>112</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>113</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15496,9 +15522,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="27908250" y="24126824"/>
-          <a:ext cx="1238250" cy="85725"/>
+        <a:xfrm flipH="1">
+          <a:off x="28581350" y="25731787"/>
+          <a:ext cx="206375" cy="26988"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15526,16 +15552,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>108</xdr:col>
+      <xdr:col>112</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>113</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15546,9 +15572,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="27908250" y="24212551"/>
-          <a:ext cx="1238250" cy="1590675"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="28581350" y="25758775"/>
+          <a:ext cx="206375" cy="1758950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15576,10 +15602,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2819400" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -15589,7 +15615,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24041100" y="23898224"/>
+          <a:off x="24711025" y="25780999"/>
           <a:ext cx="2819400" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15675,16 +15701,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>108</xdr:col>
+      <xdr:col>112</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>113</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15695,9 +15721,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="27908250" y="24212551"/>
-          <a:ext cx="1238250" cy="219075"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="28581350" y="25758775"/>
+          <a:ext cx="206375" cy="296862"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15725,16 +15751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>136333</xdr:rowOff>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>52337</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>3815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>136335</xdr:rowOff>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>230976</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>3817</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15746,8 +15772,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24250651" y="28997083"/>
-          <a:ext cx="180974" cy="2"/>
+          <a:off x="25960337" y="30331415"/>
+          <a:ext cx="178639" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15776,16 +15802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>136335</xdr:rowOff>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>70710</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>3817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>137923</xdr:rowOff>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>230546</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>3817</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15797,8 +15823,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25041225" y="28997085"/>
-          <a:ext cx="161925" cy="1588"/>
+          <a:off x="26740710" y="30331417"/>
+          <a:ext cx="159836" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15827,16 +15853,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>136335</xdr:rowOff>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>70280</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>3817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>101</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>137923</xdr:rowOff>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>230116</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>3817</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15848,8 +15874,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25812750" y="28997085"/>
-          <a:ext cx="161925" cy="1588"/>
+          <a:off x="27502280" y="30331417"/>
+          <a:ext cx="159836" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15878,16 +15904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>66668</xdr:rowOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>79368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>9489</xdr:rowOff>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>22189</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -15896,10 +15922,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23342600" y="29937068"/>
-          <a:ext cx="2914650" cy="1466821"/>
-          <a:chOff x="23631525" y="28046536"/>
-          <a:chExt cx="2952750" cy="690389"/>
+          <a:off x="25349199" y="29340168"/>
+          <a:ext cx="2914651" cy="1466821"/>
+          <a:chOff x="23631524" y="28046536"/>
+          <a:chExt cx="2952751" cy="690389"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -16191,7 +16217,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="23631525" y="28046536"/>
+            <a:off x="23631524" y="28046536"/>
             <a:ext cx="2743200" cy="197525"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -16278,10 +16304,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1390650" cy="542456"/>
     <xdr:sp macro="" textlink="">
@@ -16291,7 +16317,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22574250" y="28975049"/>
+          <a:off x="24088725" y="30327599"/>
           <a:ext cx="1390650" cy="542456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16367,27 +16393,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>120006</xdr:rowOff>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="334" name="直线箭头连接符 252"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="331" idx="1"/>
+          <a:stCxn id="166" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="21271234" y="25906090"/>
-          <a:ext cx="3282307" cy="1438276"/>
+        <a:xfrm>
+          <a:off x="22005925" y="25704800"/>
+          <a:ext cx="3444875" cy="3937000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16416,16 +16442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>102</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16434,8 +16460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23802975" y="30022800"/>
-          <a:ext cx="2571750" cy="1066800"/>
+          <a:off x="25504775" y="31045150"/>
+          <a:ext cx="2540000" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16754,16 +16780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>22189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>102</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>22983</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16774,9 +16800,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="25393651" y="29136975"/>
-          <a:ext cx="581025" cy="1190625"/>
+        <a:xfrm flipH="1">
+          <a:off x="26774775" y="30806989"/>
+          <a:ext cx="1188208" cy="238161"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16805,16 +16831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>95253</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>76204</xdr:rowOff>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16824,9 +16850,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="23741063" y="30589541"/>
-          <a:ext cx="847728" cy="1847847"/>
+        <a:xfrm flipH="1">
+          <a:off x="25666700" y="32178625"/>
+          <a:ext cx="1108075" cy="625475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16855,10 +16881,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="752475" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -16868,7 +16894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22688550" y="31937324"/>
+          <a:off x="25025350" y="32816799"/>
           <a:ext cx="752475" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22432,6 +22458,1318 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="矩形 369"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22593300" y="22428200"/>
+          <a:ext cx="5461000" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>page_cache</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>页高速缓存（虚拟文件系统概念）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可动态调整大小，利用空闲内存，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cache</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>物理块，物理块可以不连续</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>不同进程的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VMA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>address_space</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可以多对一</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>读缓存，命中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>写缓存，脏页</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓存回收算法：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LRU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>算法（最近最少使用），双链</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LRU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>算法</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="372" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="370" idx="1"/>
+          <a:endCxn id="222" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14751050" y="23514050"/>
+          <a:ext cx="7842250" cy="2493963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="400" name="矩形 399"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28778200" y="21475700"/>
+          <a:ext cx="2295525" cy="1619249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="401" name="矩形 400"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28778200" y="23075900"/>
+          <a:ext cx="2295525" cy="1619249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="矩形 401"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28778200" y="21704300"/>
+          <a:ext cx="2285999" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓存物理块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="矩形 402"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28790900" y="21920200"/>
+          <a:ext cx="2285999" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓存物理块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="404" name="矩形 403"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28778200" y="22123400"/>
+          <a:ext cx="2285999" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓存物理块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="405" name="矩形 404"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28778200" y="23291800"/>
+          <a:ext cx="2285999" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓存物理块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="406" name="矩形 405"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28790900" y="23507700"/>
+          <a:ext cx="2285999" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓存物理块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="407" name="矩形 406"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28778200" y="23710900"/>
+          <a:ext cx="2285999" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>缓存物理块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="408" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="400" idx="1"/>
+          <a:endCxn id="410" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27682825" y="22285325"/>
+          <a:ext cx="1095375" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="409" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="401" idx="1"/>
+          <a:endCxn id="410" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="27682825" y="22831425"/>
+          <a:ext cx="1095375" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="矩形 409"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26581100" y="22631400"/>
+          <a:ext cx="1101725" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>address_space</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="矩形 410"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26593800" y="23164800"/>
+          <a:ext cx="1101725" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>address_space</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="412" name="矩形 411"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25819100" y="23736300"/>
+          <a:ext cx="1889125" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>address_space</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-page_cache-entity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-physical_pages_o_af_file</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>124666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="413" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="341" idx="2"/>
+          <a:endCxn id="410" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21393150" y="15364666"/>
+          <a:ext cx="5187950" cy="7466759"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22761,8 +24099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="O116" sqref="O116"/>
+    <sheetView tabSelected="1" topLeftCell="AV128" workbookViewId="0">
+      <selection activeCell="DG138" sqref="DG138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -22790,10 +24128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22843,6 +24181,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -7852,7 +7852,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="28787725" y="19964400"/>
+            <a:off x="28787725" y="19989800"/>
             <a:ext cx="2309812" cy="352425"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -23772,6 +23772,5099 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>26542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>6200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="484" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="424" idx="2"/>
+          <a:endCxn id="414" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20425833" y="41936542"/>
+          <a:ext cx="1081617" cy="589258"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>19535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>139523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="485" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="414" idx="2"/>
+          <a:endCxn id="427" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20425833" y="42996335"/>
+          <a:ext cx="294217" cy="424788"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>19535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>126453</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="486" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="414" idx="2"/>
+          <a:endCxn id="416" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20425833" y="42996335"/>
+          <a:ext cx="4510617" cy="411718"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>207432</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>57800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>52905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="518" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="514" idx="2"/>
+          <a:endCxn id="445" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17987432" y="46387400"/>
+          <a:ext cx="512234" cy="1061905"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>51271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>48554</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="519" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="490" idx="2"/>
+          <a:endCxn id="447" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19018249" y="46380871"/>
+          <a:ext cx="1058333" cy="1064083"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>226482</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>40217</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>50802</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="520" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="448" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19530482" y="46348650"/>
+          <a:ext cx="67735" cy="1098552"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>241298</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>51271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>23282</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>46377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="521" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="491" idx="2"/>
+          <a:endCxn id="449" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20053298" y="46380871"/>
+          <a:ext cx="543984" cy="1061906"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>220132</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>39934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>31768</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="522" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="428" idx="2"/>
+          <a:endCxn id="515" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18508132" y="44388334"/>
+          <a:ext cx="1430868" cy="1363434"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>39934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>25239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="523" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="429" idx="2"/>
+          <a:endCxn id="490" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20076582" y="44388334"/>
+          <a:ext cx="383118" cy="1356905"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>39934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>78316</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>7832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="524" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="430" idx="2"/>
+          <a:endCxn id="496" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20980400" y="44388334"/>
+          <a:ext cx="1195916" cy="1339498"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>39934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>103716</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>7832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="525" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="431" idx="2"/>
+          <a:endCxn id="498" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21501100" y="44388334"/>
+          <a:ext cx="1716616" cy="1339498"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>220132</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>57800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>245532</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>50730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="526" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="515" idx="2"/>
+          <a:endCxn id="450" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18508132" y="46387400"/>
+          <a:ext cx="2057400" cy="1059730"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>78316</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>33864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>26793</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="527" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="496" idx="2"/>
+          <a:endCxn id="457" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22176316" y="46363464"/>
+          <a:ext cx="2017185" cy="1059729"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>14817</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>33864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>103716</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>52905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="528" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="498" idx="2"/>
+          <a:endCxn id="453" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22112817" y="46363464"/>
+          <a:ext cx="1104899" cy="1085841"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>116416</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>29635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>230716</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>6130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="529" name="直接连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="499" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23738416" y="44378035"/>
+          <a:ext cx="368300" cy="1348095"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>86784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>71967</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>150283</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="90" name="组 89"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16243300" y="45044784"/>
+          <a:ext cx="12276667" cy="3568699"/>
+          <a:chOff x="16192500" y="41200917"/>
+          <a:chExt cx="12276667" cy="3471333"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="组 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="18182166" y="43349335"/>
+            <a:ext cx="9359900" cy="829733"/>
+            <a:chOff x="18415000" y="42756667"/>
+            <a:chExt cx="9359900" cy="829733"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="444" name="矩形 443"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18415000" y="42756667"/>
+              <a:ext cx="9359900" cy="817033"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>disk</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="445" name="矩形 444"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18427700" y="42947167"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="447" name="矩形 446"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18946283" y="42942934"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="448" name="矩形 447"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19458516" y="42947167"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="449" name="矩形 448"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19981332" y="42940817"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="450" name="矩形 449"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20493566" y="42945051"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="451" name="矩形 450"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21005800" y="42938701"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="452" name="矩形 451"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21528617" y="42942934"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="453" name="矩形 452"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22040851" y="42947167"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="454" name="矩形 453"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22563668" y="42940817"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="455" name="矩形 454"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23086485" y="42934467"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="456" name="矩形 455"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23598718" y="42928117"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="457" name="矩形 456"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="24121535" y="42921767"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="458" name="矩形 457"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="24633768" y="42926001"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="459" name="矩形 458"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="25156584" y="42930234"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="460" name="矩形 459"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="25679400" y="42923884"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="461" name="矩形 460"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="26191634" y="42917534"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="462" name="矩形 461"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="26714451" y="42921767"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="463" name="矩形 462"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="27226684" y="42926000"/>
+              <a:ext cx="508000" cy="639233"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="37" name="组 36"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="17669932" y="41499370"/>
+            <a:ext cx="10494434" cy="1007532"/>
+            <a:chOff x="16960850" y="41393535"/>
+            <a:chExt cx="10494434" cy="1007532"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="488" name="组 487"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="19050000" y="41454916"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="489" name="矩形 488"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="490" name="矩形 489"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="491" name="矩形 490"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="492" name="矩形 491"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="493" name="矩形 492"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="494" name="组 493"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="21149734" y="41437984"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="495" name="矩形 494"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="496" name="矩形 495"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="497" name="矩形 496"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="498" name="矩形 497"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="499" name="矩形 498"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="500" name="组 499"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="23249467" y="41410467"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="501" name="矩形 500"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="502" name="矩形 501"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="503" name="矩形 502"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="504" name="矩形 503"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="505" name="矩形 504"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="506" name="组 505"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="25359784" y="41393535"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="507" name="矩形 506"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="508" name="矩形 507"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="509" name="矩形 508"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="510" name="矩形 509"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="511" name="矩形 510"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="512" name="组 511"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="16960850" y="41461267"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="513" name="矩形 512"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="514" name="矩形 513"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="515" name="矩形 514"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="516" name="矩形 515"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="517" name="矩形 516"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="530" name="矩形 529"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16192500" y="41200917"/>
+            <a:ext cx="12276667" cy="3471333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>驱动程序</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="531" name="矩形 530"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16795750" y="41444334"/>
+            <a:ext cx="920749" cy="370417"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_cache</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>251883</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>61383</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="组 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16253883" y="40589200"/>
+          <a:ext cx="12255500" cy="4182533"/>
+          <a:chOff x="16203083" y="36872333"/>
+          <a:chExt cx="12255500" cy="4064000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="414" name="矩形 413"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19606683" y="38754050"/>
+            <a:ext cx="1536700" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>address_space</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="415" name="矩形 414"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="25273000" y="38650333"/>
+            <a:ext cx="1270000" cy="339725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>address_space</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="424" name="矩形 423"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20294600" y="37456533"/>
+            <a:ext cx="2324100" cy="724958"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>file</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="87" name="组 86"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="19621500" y="39611300"/>
+            <a:ext cx="8420100" cy="952500"/>
+            <a:chOff x="19621500" y="39611300"/>
+            <a:chExt cx="8420100" cy="952500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="6" name="组 5"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="23837900" y="39611300"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="416" name="矩形 415"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="420" name="矩形 419"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="421" name="矩形 420"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="422" name="矩形 421"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="423" name="矩形 422"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="426" name="组 425"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="19621500" y="39624000"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="427" name="矩形 426"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="428" name="矩形 427"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="429" name="矩形 428"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="430" name="矩形 429"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="431" name="矩形 430"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="432" name="组 431"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="21729700" y="39624000"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="433" name="矩形 432"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="434" name="矩形 433"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="435" name="矩形 434"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="436" name="矩形 435"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="437" name="矩形 436"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="438" name="组 437"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="25946100" y="39611300"/>
+              <a:ext cx="2095500" cy="939800"/>
+              <a:chOff x="19316700" y="40449500"/>
+              <a:chExt cx="2095500" cy="965200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="439" name="矩形 438"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19316700" y="40449500"/>
+                <a:ext cx="2095500" cy="965200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="440" name="矩形 439"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19329400" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="441" name="矩形 440"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="19850100" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="442" name="矩形 441"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20370800" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="443" name="矩形 442"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="20891500" y="40779700"/>
+                <a:ext cx="508000" cy="635000"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>block</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="532" name="矩形 531"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16203083" y="36872333"/>
+            <a:ext cx="12255500" cy="4064000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>文件系统</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="533" name="矩形 532"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18785417" y="39105418"/>
+            <a:ext cx="920749" cy="709084"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>page_cache</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>73003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="534" name="矩形 533"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17348200" y="40170100"/>
+          <a:ext cx="2324100" cy="746103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>buffer_cache</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> &amp; page_cache</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24099,8 +29192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV128" workbookViewId="0">
-      <selection activeCell="DG138" sqref="DG138"/>
+    <sheetView tabSelected="1" topLeftCell="BJ278" workbookViewId="0">
+      <selection activeCell="CH264" sqref="CH264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="31960" windowHeight="20240"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="31960" windowHeight="20240" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="lkd总览" sheetId="1" r:id="rId1"/>
+    <sheet name="LKD总览" sheetId="1" r:id="rId1"/>
     <sheet name="web-doc" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>https://blog.csdn.net/maopig/article/details/77800124</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,30 +75,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缓冲区与页高速缓存</t>
-    <rPh sb="0" eb="1">
-      <t>huan chogn qu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gao su</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>huan cun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://blog.csdn.net/gtopia/article/details/24911235</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://bbs.chinaunix.net/thread-1983933-1-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kisimple/article/details/42559779</t>
+  </si>
+  <si>
+    <t>缓冲区buffer_cache与页高速缓存page_cache</t>
+    <rPh sb="0" eb="1">
+      <t>huan chogn qu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gao su</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>huan cun</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +184,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,6 +198,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28868,6 +28874,5803 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4673600" y="558800"/>
+          <a:ext cx="6629400" cy="9321800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="组 34"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1625600" y="647700"/>
+          <a:ext cx="1612900" cy="8674100"/>
+          <a:chOff x="1625600" y="647700"/>
+          <a:chExt cx="1612900" cy="8674100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="矩形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1625600" y="647700"/>
+            <a:ext cx="1612900" cy="8674100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="组 33"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1625600" y="1333500"/>
+            <a:ext cx="1612900" cy="7239000"/>
+            <a:chOff x="1625600" y="1333500"/>
+            <a:chExt cx="1612900" cy="7239000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="矩形 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="1333500"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="矩形 4"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="1574800"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="矩形 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="1816100"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="矩形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="2057400"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="矩形 7"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="2298700"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="矩形 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="2540000"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="矩形 9"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="2781300"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="矩形 10"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="3022600"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="矩形 11"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="3505200"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="矩形 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="3263900"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="矩形 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="3746500"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="矩形 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="3987800"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="矩形 15"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="4229100"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="矩形 16"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="4470400"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="矩形 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="4711700"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="矩形 18"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="4953000"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="矩形 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="5194300"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="矩形 20"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="5435600"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="矩形 21"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="5918200"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="矩形 22"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="5676900"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="矩形 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="6159500"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="矩形 24"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="6400800"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="矩形 25"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="6642100"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="矩形 26"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="6883400"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="矩形 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="7124700"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="矩形 28"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="7366000"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="矩形 29"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="7607300"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="矩形 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="7848600"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="矩形 31"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="8331200"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="矩形 32"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625600" y="8089900"/>
+              <a:ext cx="1612900" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="749300" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="文本框 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="330201"/>
+          <a:ext cx="749300" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>磁盘</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="116" name="组 115"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7124700" y="787400"/>
+          <a:ext cx="1663700" cy="3136900"/>
+          <a:chOff x="5054600" y="850900"/>
+          <a:chExt cx="1663700" cy="3136900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="矩形 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5054600" y="1219200"/>
+            <a:ext cx="965200" cy="2768600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="文本框 41"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5054600" y="850900"/>
+            <a:ext cx="1663700" cy="283411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>buffer_cache</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>缓冲区</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="51" name="组 50"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5067300" y="1422400"/>
+            <a:ext cx="952500" cy="965200"/>
+            <a:chOff x="6337300" y="1727200"/>
+            <a:chExt cx="952500" cy="965200"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="矩形 46"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="1727200"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="矩形 47"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="1968500"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="矩形 48"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="2209800"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="矩形 49"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="2451100"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="52" name="组 51"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5067300" y="2654300"/>
+            <a:ext cx="952500" cy="482600"/>
+            <a:chOff x="6337300" y="1727200"/>
+            <a:chExt cx="952500" cy="482600"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="矩形 52"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="1727200"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="矩形 53"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="1968500"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="117" name="组 116"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7124700" y="4724400"/>
+          <a:ext cx="1663700" cy="4483100"/>
+          <a:chOff x="5041900" y="4533900"/>
+          <a:chExt cx="1663700" cy="4483100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="矩形 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5041900" y="4864100"/>
+            <a:ext cx="965200" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="文本框 43"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5041900" y="4533900"/>
+            <a:ext cx="1663700" cy="283411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>page_cache</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>页高速缓存</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="57" name="组 56"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5054600" y="5181600"/>
+            <a:ext cx="952500" cy="965200"/>
+            <a:chOff x="6337300" y="1727200"/>
+            <a:chExt cx="952500" cy="965200"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="矩形 57"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="1727200"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="矩形 58"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="1968500"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="矩形 59"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="2209800"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="矩形 60"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="2451100"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="62" name="组 61"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5054600" y="6261100"/>
+            <a:ext cx="952500" cy="965200"/>
+            <a:chOff x="6337300" y="1727200"/>
+            <a:chExt cx="952500" cy="965200"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="矩形 62"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="1727200"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="矩形 63"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="1968500"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="矩形 64"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="2209800"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="矩形 65"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337300" y="2451100"/>
+              <a:ext cx="952500" cy="241300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>block</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直线连接符 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="3"/>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="5861050"/>
+          <a:ext cx="863600" cy="1435100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="115" name="组 114"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5321300" y="1041400"/>
+          <a:ext cx="952500" cy="4940300"/>
+          <a:chOff x="7886700" y="901700"/>
+          <a:chExt cx="952500" cy="4940300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="矩形 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="1244600"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="矩形 72"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="1600200"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="矩形 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="1943100"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="矩形 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="2298700"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="矩形 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="2654300"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="矩形 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="3022600"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="矩形 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="3365500"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="矩形 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="3733800"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="矩形 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="4102100"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="矩形 80"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="4470400"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="矩形 81"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="4851400"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="矩形 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="5207000"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="矩形 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="901700"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="矩形 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="5600700"/>
+            <a:ext cx="952500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>buffer_header</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直线连接符 119"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="5467350"/>
+          <a:ext cx="863600" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直线连接符 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="5111750"/>
+          <a:ext cx="863600" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直线连接符 126"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="4730750"/>
+          <a:ext cx="863600" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直线连接符 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="4362450"/>
+          <a:ext cx="863600" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直线连接符 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="3994150"/>
+          <a:ext cx="863600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直线连接符 135"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="3625850"/>
+          <a:ext cx="863600" cy="2108200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直线连接符 138"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="3282950"/>
+          <a:ext cx="863600" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直线连接符 141"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="3"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="2914650"/>
+          <a:ext cx="863600" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直线连接符 144"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="3"/>
+          <a:endCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="2559050"/>
+          <a:ext cx="863600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直线连接符 147"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="2203450"/>
+          <a:ext cx="863600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直线连接符 150"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="1860550"/>
+          <a:ext cx="863600" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直线连接符 153"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="1504950"/>
+          <a:ext cx="863600" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直线连接符 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="1162050"/>
+          <a:ext cx="863600" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="114" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="5861050"/>
+          <a:ext cx="2082800" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直线连接符 162"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="5467350"/>
+          <a:ext cx="2082800" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直线连接符 165"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="5111750"/>
+          <a:ext cx="2082800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="直线连接符 168"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="81" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="4730750"/>
+          <a:ext cx="2082800" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="直线连接符 171"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="4362450"/>
+          <a:ext cx="2082800" cy="1917700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="直线连接符 174"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3143250"/>
+          <a:ext cx="2082800" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="直线连接符 177"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3625850"/>
+          <a:ext cx="2082800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直线连接符 180"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="3282950"/>
+          <a:ext cx="2082800" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="直线连接符 183"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="2901950"/>
+          <a:ext cx="2082800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直线连接符 186"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1454150"/>
+          <a:ext cx="2082800" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直线连接符 189"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="2203450"/>
+          <a:ext cx="2082800" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="直线连接符 192"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="1860550"/>
+          <a:ext cx="2082800" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直线连接符 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="1504950"/>
+          <a:ext cx="2082800" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="直线连接符 198"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="113" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="1162050"/>
+          <a:ext cx="2082800" cy="3670300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="矩形 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="5257800"/>
+          <a:ext cx="1104900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>address_space</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="直线连接符 203"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="203" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8089900" y="5397500"/>
+          <a:ext cx="1358900" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="直线连接符 206"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="3"/>
+          <a:endCxn id="203" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8089900" y="5397500"/>
+          <a:ext cx="1358900" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="749300" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="文本框 209"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4673600" y="254001"/>
+          <a:ext cx="749300" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>内存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="矩形 210"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="685800"/>
+          <a:ext cx="3898900" cy="8801100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="文本框 211"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="685801"/>
+          <a:ext cx="1270000" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>磁盘驱动部分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="矩形 212"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6794500" y="4406900"/>
+          <a:ext cx="4216400" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="文本框 215"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9740900" y="4406900"/>
+          <a:ext cx="1270000" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>文件系统部分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -29192,8 +34995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ278" workbookViewId="0">
-      <selection activeCell="CH264" sqref="CH264"/>
+    <sheetView topLeftCell="BJ128" workbookViewId="0">
+      <selection activeCell="BL293" sqref="BL293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -29221,10 +35024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29276,17 +35079,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -29307,12 +35115,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="5"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="34220" windowHeight="19500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LKD总览" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>https://blog.csdn.net/maopig/article/details/77800124</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,12 +103,37 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>context切换</t>
+    <rPh sb="7" eb="8">
+      <t>qie huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/gatieme/article/details/51872659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU寄存器介绍</t>
+    <rPh sb="3" eb="4">
+      <t>ji cun qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mallocfree.com/basic/asm/asm-0-register.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,28 +721,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>215902</xdr:colOff>
+      <xdr:colOff>176336</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>88413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>195389</xdr:colOff>
+      <xdr:colOff>205153</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>115888</xdr:rowOff>
+      <xdr:rowOff>77664</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="下箭头 8"/>
+        <xdr:cNvPr id="9" name="左右箭头 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3481452" y="5687950"/>
-          <a:ext cx="306388" cy="2265487"/>
+        <a:xfrm rot="10800000">
+          <a:off x="2462336" y="6809644"/>
+          <a:ext cx="2314817" cy="301866"/>
         </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52588"/>
+            <a:gd name="adj2" fmla="val 72284"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -2004,8 +2037,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4133851" y="7029450"/>
-          <a:ext cx="6946905" cy="4949848"/>
+          <a:off x="4083051" y="7687652"/>
+          <a:ext cx="6861180" cy="5406559"/>
           <a:chOff x="3028951" y="8308975"/>
           <a:chExt cx="6861180" cy="5273698"/>
         </a:xfrm>
@@ -2203,7 +2236,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2226,14 +2259,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2558,83 +2591,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>136300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>27600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="矩形 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2654300" y="5943600"/>
-          <a:ext cx="1800000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CR3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>控制存器（页目录地址）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>42</xdr:row>
@@ -2679,7 +2635,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2767,8 +2723,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17551400" y="16313150"/>
-          <a:ext cx="4591050" cy="2974975"/>
+          <a:off x="17335500" y="17844477"/>
+          <a:ext cx="4533900" cy="3257061"/>
           <a:chOff x="9467850" y="5629274"/>
           <a:chExt cx="4591050" cy="2981326"/>
         </a:xfrm>
@@ -2846,7 +2802,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2869,14 +2825,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2939,7 +2895,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2968,8 +2924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1397001" y="838200"/>
-          <a:ext cx="1111248" cy="33943925"/>
+          <a:off x="1381126" y="905363"/>
+          <a:ext cx="1098548" cy="37140906"/>
           <a:chOff x="2955926" y="885825"/>
           <a:chExt cx="1098548" cy="6096007"/>
         </a:xfrm>
@@ -3683,7 +3639,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3714,8 +3670,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22733000" y="15414625"/>
-          <a:ext cx="4987925" cy="4781550"/>
+          <a:off x="22453600" y="16851923"/>
+          <a:ext cx="4927600" cy="5238262"/>
           <a:chOff x="11049000" y="5000626"/>
           <a:chExt cx="4981575" cy="4791074"/>
         </a:xfrm>
@@ -3809,7 +3765,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3832,14 +3788,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3902,7 +3858,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3933,8 +3889,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23069550" y="8928100"/>
-          <a:ext cx="5505450" cy="3924300"/>
+          <a:off x="22786975" y="9760927"/>
+          <a:ext cx="5435600" cy="4286983"/>
           <a:chOff x="15154275" y="13173075"/>
           <a:chExt cx="5514975" cy="3933825"/>
         </a:xfrm>
@@ -4143,7 +4099,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4166,14 +4122,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4749,7 +4705,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5208,7 +5164,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5880,8 +5836,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="38200445" y="33056079"/>
-          <a:ext cx="2352675" cy="11858626"/>
+          <a:off x="37730545" y="36159031"/>
+          <a:ext cx="2324100" cy="12973539"/>
           <a:chOff x="37730545" y="16434954"/>
           <a:chExt cx="2324100" cy="12649201"/>
         </a:xfrm>
@@ -6076,8 +6032,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="31784925" y="9883775"/>
-          <a:ext cx="6235700" cy="3051175"/>
+          <a:off x="31394400" y="10810631"/>
+          <a:ext cx="6159500" cy="3333261"/>
           <a:chOff x="28956000" y="9877426"/>
           <a:chExt cx="6238875" cy="3047999"/>
         </a:xfrm>
@@ -6160,7 +6116,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6183,14 +6139,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6254,7 +6210,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6540,7 +6496,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6807,7 +6763,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6818,16 +6774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>77751</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6838,10 +6794,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2828925" y="1311275"/>
-          <a:ext cx="3394075" cy="1987550"/>
-          <a:chOff x="6912" y="983040"/>
-          <a:chExt cx="3404187" cy="1979235"/>
+          <a:off x="4711700" y="3334199"/>
+          <a:ext cx="2667000" cy="807552"/>
+          <a:chOff x="1954004" y="2713389"/>
+          <a:chExt cx="2707876" cy="734661"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -6982,10 +6938,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr bwMode="auto">
           <a:xfrm>
-            <a:off x="2247900" y="2733675"/>
-            <a:ext cx="2419350" cy="714375"/>
-            <a:chOff x="4371975" y="2514600"/>
-            <a:chExt cx="2419350" cy="714375"/>
+            <a:off x="2250581" y="2733675"/>
+            <a:ext cx="2411299" cy="714375"/>
+            <a:chOff x="4374656" y="2514600"/>
+            <a:chExt cx="2411299" cy="714375"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -7018,7 +6974,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7068,7 +7024,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7118,7 +7074,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7145,7 +7101,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4374655" y="2719496"/>
+              <a:off x="4374656" y="2719494"/>
               <a:ext cx="2411299" cy="296293"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7222,7 +7178,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7272,7 +7228,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7614,8 +7570,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29132213" y="33105725"/>
-          <a:ext cx="2352674" cy="11833225"/>
+          <a:off x="28773438" y="36208677"/>
+          <a:ext cx="2324099" cy="12948138"/>
           <a:chOff x="28773438" y="16611600"/>
           <a:chExt cx="2324099" cy="12623800"/>
         </a:xfrm>
@@ -8186,7 +8142,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8244,7 +8200,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8352,8 +8308,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6442075" y="635000"/>
-          <a:ext cx="4048125" cy="2416175"/>
+          <a:off x="6362700" y="688731"/>
+          <a:ext cx="4000500" cy="2644531"/>
           <a:chOff x="3971925" y="704850"/>
           <a:chExt cx="4048125" cy="2419350"/>
         </a:xfrm>
@@ -8423,7 +8379,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8446,14 +8402,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8667,7 +8623,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8961,7 +8917,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9261,7 +9217,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9290,8 +9246,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3908425" y="27095450"/>
-          <a:ext cx="2727325" cy="1079500"/>
+          <a:off x="3860800" y="29634229"/>
+          <a:ext cx="2695575" cy="1186961"/>
           <a:chOff x="3765550" y="27000200"/>
           <a:chExt cx="2727325" cy="1079500"/>
         </a:xfrm>
@@ -10216,8 +10172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14052550" y="29054425"/>
-          <a:ext cx="4991100" cy="3092450"/>
+          <a:off x="13881100" y="31781262"/>
+          <a:ext cx="4927600" cy="3387969"/>
           <a:chOff x="12598400" y="30010100"/>
           <a:chExt cx="4927600" cy="3302000"/>
         </a:xfrm>
@@ -12264,8 +12220,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5229225" y="24958675"/>
-          <a:ext cx="3343275" cy="1660525"/>
+          <a:off x="5165725" y="27295963"/>
+          <a:ext cx="3302000" cy="1821718"/>
           <a:chOff x="4127500" y="27520900"/>
           <a:chExt cx="3302000" cy="1765300"/>
         </a:xfrm>
@@ -12946,7 +12902,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13004,7 +12960,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13786,7 +13742,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13844,7 +13800,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13902,7 +13858,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13960,7 +13916,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14018,7 +13974,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14076,7 +14032,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14167,8 +14123,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13992225" y="19592925"/>
-          <a:ext cx="4438650" cy="3324225"/>
+          <a:off x="13820775" y="21433204"/>
+          <a:ext cx="4384675" cy="3633177"/>
           <a:chOff x="14068425" y="19383375"/>
           <a:chExt cx="4438650" cy="3324225"/>
         </a:xfrm>
@@ -14334,7 +14290,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14925,8 +14881,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31759525" y="24418925"/>
-          <a:ext cx="3524251" cy="2524125"/>
+          <a:off x="31369000" y="26702483"/>
+          <a:ext cx="3479801" cy="2765913"/>
           <a:chOff x="24841200" y="20459700"/>
           <a:chExt cx="3524251" cy="2533650"/>
         </a:xfrm>
@@ -15072,8 +15028,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25488899" y="24441150"/>
-          <a:ext cx="3282950" cy="2724151"/>
+          <a:off x="25174574" y="26738140"/>
+          <a:ext cx="3244850" cy="2979373"/>
           <a:chOff x="24784049" y="24917400"/>
           <a:chExt cx="3286125" cy="2724151"/>
         </a:xfrm>
@@ -15919,8 +15875,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25663524" y="27511368"/>
-          <a:ext cx="2952751" cy="1371571"/>
+          <a:off x="25349199" y="30090445"/>
+          <a:ext cx="2914651" cy="1505898"/>
           <a:chOff x="23631524" y="28046536"/>
           <a:chExt cx="2952751" cy="690389"/>
         </a:xfrm>
@@ -17419,7 +17375,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17594,7 +17550,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17651,7 +17607,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17708,7 +17664,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17765,7 +17721,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17867,8 +17823,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22834600" y="13090525"/>
-          <a:ext cx="1196975" cy="1209675"/>
+          <a:off x="22555200" y="14312900"/>
+          <a:ext cx="1181100" cy="1330569"/>
           <a:chOff x="22275800" y="14300200"/>
           <a:chExt cx="1181100" cy="1295400"/>
         </a:xfrm>
@@ -18135,8 +18091,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18757900" y="11014075"/>
-          <a:ext cx="1777270" cy="1658191"/>
+          <a:off x="18529300" y="12048392"/>
+          <a:ext cx="1755045" cy="1805951"/>
           <a:chOff x="18719800" y="13322300"/>
           <a:chExt cx="1755045" cy="1762966"/>
         </a:xfrm>
@@ -18520,7 +18476,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18577,7 +18533,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18634,7 +18590,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18691,7 +18647,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18720,8 +18676,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18554694" y="13004800"/>
-          <a:ext cx="1094728" cy="2918666"/>
+          <a:off x="18326094" y="14227175"/>
+          <a:ext cx="1082028" cy="3187320"/>
           <a:chOff x="18872194" y="14392275"/>
           <a:chExt cx="1082028" cy="3109166"/>
         </a:xfrm>
@@ -19130,7 +19086,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19187,7 +19143,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19244,7 +19200,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19273,8 +19229,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21177250" y="11972925"/>
-          <a:ext cx="952500" cy="2439241"/>
+          <a:off x="20916900" y="13087838"/>
+          <a:ext cx="939800" cy="2667597"/>
           <a:chOff x="20599400" y="13131800"/>
           <a:chExt cx="939800" cy="2601166"/>
         </a:xfrm>
@@ -19765,7 +19721,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19822,7 +19778,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19879,7 +19835,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19908,8 +19864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11328400" y="14014450"/>
-          <a:ext cx="1104900" cy="1412875"/>
+          <a:off x="11188700" y="15330854"/>
+          <a:ext cx="1092200" cy="1533769"/>
           <a:chOff x="16713200" y="10007600"/>
           <a:chExt cx="1092200" cy="1498600"/>
         </a:xfrm>
@@ -20200,8 +20156,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9731375" y="13506450"/>
-          <a:ext cx="1158875" cy="936625"/>
+          <a:off x="9613900" y="14769123"/>
+          <a:ext cx="1143000" cy="1030654"/>
           <a:chOff x="18567400" y="9956800"/>
           <a:chExt cx="1143000" cy="1003300"/>
         </a:xfrm>
@@ -20427,8 +20383,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8213725" y="15284450"/>
-          <a:ext cx="1158875" cy="768350"/>
+          <a:off x="8115300" y="16708315"/>
+          <a:ext cx="1143000" cy="848947"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20660,8 +20616,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9756775" y="15001875"/>
-          <a:ext cx="1158875" cy="946150"/>
+          <a:off x="9639300" y="16412308"/>
+          <a:ext cx="1143000" cy="1026746"/>
           <a:chOff x="18567400" y="9956800"/>
           <a:chExt cx="1143000" cy="1003300"/>
         </a:xfrm>
@@ -20887,8 +20843,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8201025" y="12884150"/>
-          <a:ext cx="1158875" cy="777875"/>
+          <a:off x="8102600" y="14093092"/>
+          <a:ext cx="1143000" cy="845039"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -21120,8 +21076,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8213725" y="14090650"/>
-          <a:ext cx="1158875" cy="768350"/>
+          <a:off x="8115300" y="15407054"/>
+          <a:ext cx="1143000" cy="848946"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -21353,8 +21309,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8213725" y="16284575"/>
-          <a:ext cx="1158875" cy="768350"/>
+          <a:off x="8115300" y="17802469"/>
+          <a:ext cx="1143000" cy="848946"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -21586,8 +21542,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5991225" y="12985750"/>
-          <a:ext cx="1362075" cy="4105275"/>
+          <a:off x="5918200" y="14194692"/>
+          <a:ext cx="1346200" cy="4494823"/>
           <a:chOff x="4572000" y="14211300"/>
           <a:chExt cx="1346200" cy="4381500"/>
         </a:xfrm>
@@ -21913,7 +21869,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21970,7 +21926,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -22027,7 +21983,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -22166,7 +22122,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -22222,7 +22178,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -24537,8 +24493,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16443325" y="42234909"/>
-          <a:ext cx="12432242" cy="3340099"/>
+          <a:off x="16243300" y="46197553"/>
+          <a:ext cx="12276667" cy="3658576"/>
           <a:chOff x="16192500" y="41200917"/>
           <a:chExt cx="12276667" cy="3471333"/>
         </a:xfrm>
@@ -27282,8 +27238,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16453908" y="38055550"/>
-          <a:ext cx="12411075" cy="3925358"/>
+          <a:off x="16253883" y="41628646"/>
+          <a:ext cx="12255500" cy="4288041"/>
           <a:chOff x="16203083" y="36872333"/>
           <a:chExt cx="12255500" cy="4064000"/>
         </a:xfrm>
@@ -28909,8 +28865,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16513628" y="46917429"/>
-          <a:ext cx="9816940" cy="8118207"/>
+          <a:off x="16310428" y="51323352"/>
+          <a:ext cx="9696290" cy="8883871"/>
           <a:chOff x="1422400" y="231589"/>
           <a:chExt cx="9868647" cy="8506011"/>
         </a:xfrm>
@@ -34311,6 +34267,614 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>68385</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="570" name="矩形 569"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448299" y="6118224"/>
+          <a:ext cx="1478086" cy="182929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控制寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CR0-CR3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>107458</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>195383</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="571" name="文本框 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6965458" y="6096000"/>
+          <a:ext cx="2881925" cy="1348154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>CR0-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分页机制控制位，浮点协处理器操作控制位等</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>CR1-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>预留</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>CR2-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>页异常信号，当发生页异常时，处理器把引起页异常的线性地址保存在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>CR2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>中。操作系统中的页异常处理程序可以检查</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>CR2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的内容，从而查出线性地址空间中的哪一页引起本次异常。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>CR3-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>页目录地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>195385</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="572" name="文本框 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259385" y="4415692"/>
+          <a:ext cx="3067538" cy="244231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>通用寄存器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>65453</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>235453</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="574" name="矩形 573"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6923453" y="5083174"/>
+          <a:ext cx="1440000" cy="183908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指令计数器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>68385</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>238385</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="575" name="矩形 574"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6926385" y="5598501"/>
+          <a:ext cx="1440000" cy="183908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ESP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>栈顶指针寄存器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>195400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>151425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="576" name="矩形 575"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8407400" y="5594594"/>
+          <a:ext cx="1440000" cy="183908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EBP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>栈基址寄存器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19539</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646331" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="577" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083539" y="3800231"/>
+          <a:ext cx="646331" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>控制总线</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>65212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>78154</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="578" name="左右箭头 577"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4487375" y="3783990"/>
+          <a:ext cx="566615" cy="266942"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52588"/>
+            <a:gd name="adj2" fmla="val 72284"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -34635,21 +35199,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="BX25" sqref="BX25"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="45" width="3.375" style="1"/>
-    <col min="46" max="46" width="3.375" style="3"/>
-    <col min="47" max="16384" width="3.375" style="1"/>
+    <col min="1" max="45" width="3.33203125" style="1"/>
+    <col min="46" max="46" width="3.33203125" style="3"/>
+    <col min="47" max="16384" width="3.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:47" s="4" customFormat="1">
+    <row r="1" spans="12:47" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
@@ -34666,78 +35230,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/linux-kernel.xlsx
+++ b/linux-kernel.xlsx
@@ -1,19 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="34220" windowHeight="19500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="LKD总览" sheetId="1" r:id="rId1"/>
     <sheet name="web-doc" sheetId="2" r:id="rId2"/>
+    <sheet name="linux-code-emu" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>https://blog.csdn.net/maopig/article/details/77800124</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,12 +124,104 @@
     <t>https://www.mallocfree.com/basic/asm/asm-0-register.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>内核编译与运行</t>
+  </si>
+  <si>
+    <t>ref doc:</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/syw-casualet/p/5271369.html</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/Andy-Lv/p/5304247.html</t>
+  </si>
+  <si>
+    <t>1 download src</t>
+  </si>
+  <si>
+    <t>https://www.kernel.org/</t>
+  </si>
+  <si>
+    <t>make i386_defconfig</t>
+  </si>
+  <si>
+    <t>git clone git://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux-2.6.git</t>
+  </si>
+  <si>
+    <t>2 make rootfs.img</t>
+  </si>
+  <si>
+    <t>在内核启动的时候会先去加载的一种文件系统</t>
+  </si>
+  <si>
+    <t>mkdir rootfs</t>
+  </si>
+  <si>
+    <t>在目录下建立init可执行程序，这个可以是自己编写的helloworld输出程序</t>
+  </si>
+  <si>
+    <t>gcc -o init test.c -m32 -static -lpthread</t>
+  </si>
+  <si>
+    <t>在rootfs下执行</t>
+  </si>
+  <si>
+    <t>find . | cpio -o -H newc |gzip -9 &gt; ../rootfs.img</t>
+  </si>
+  <si>
+    <t>可以执行任意CPU模拟机</t>
+  </si>
+  <si>
+    <t>4用模拟器启动内核</t>
+  </si>
+  <si>
+    <t>内核书籍</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weibo1230123/article/details/82953066</t>
+  </si>
+  <si>
+    <t>《Linux内核设计与实现》</t>
+  </si>
+  <si>
+    <t>《深入理解Linux内核》</t>
+  </si>
+  <si>
+    <t>《Linux设备驱动程序》</t>
+  </si>
+  <si>
+    <t>《深入理解Linux虚拟内存管理》</t>
+  </si>
+  <si>
+    <t>《深入理解LINUX网络内幕》</t>
+  </si>
+  <si>
+    <t>这5本书各有侧重，正如下面的图所展示的那样，恰好代表了个人一直主张的内核学习方法：首先通过LKD或ULK了解内核的设计实现特点，对内核有个整体全局的认识和理解，然后可分为两个岔路：</t>
+  </si>
+  <si>
+    <t>（1）如果从事驱动开发，则钻研LDD，如果希望对内核不是泛泛而谈而是有更深入的理解，则可以选择一个自己感兴趣的子系统，仔细分析它的代码，不懂的地方就通过社区、邮件列表或者直接发Email给maintainer请教等途径弄懂，切勿得过且过，这样分析下来，对同步、中断等等内核的很多机制也同样会非常了解，俗话说的一通则百通就是这个道理。</t>
+  </si>
+  <si>
+    <t>（2）当然，如果你选择研究的是内存管理或者网络，则可以有上面的两本书可以学习，如果是其他子系统，可能就没有这么好的运气了。</t>
+  </si>
+  <si>
+    <t>make后 生成  arch/i386/boot/bzImage 即内核代码镜像</t>
+  </si>
+  <si>
+    <t>2 install qemu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qemu-system-i386 -m 1024M -kernel arch/i386/boot/bzImage -initrd rootfs.img</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +253,12 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2037,8 +2131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4083051" y="7687652"/>
-          <a:ext cx="6861180" cy="5406559"/>
+          <a:off x="4133851" y="7029450"/>
+          <a:ext cx="6946905" cy="4949848"/>
           <a:chOff x="3028951" y="8308975"/>
           <a:chExt cx="6861180" cy="5273698"/>
         </a:xfrm>
@@ -2236,7 +2330,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2259,14 +2353,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2635,7 +2729,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2723,8 +2817,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17335500" y="17844477"/>
-          <a:ext cx="4533900" cy="3257061"/>
+          <a:off x="17551400" y="16313150"/>
+          <a:ext cx="4591050" cy="2974975"/>
           <a:chOff x="9467850" y="5629274"/>
           <a:chExt cx="4591050" cy="2981326"/>
         </a:xfrm>
@@ -2802,7 +2896,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2825,14 +2919,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2895,7 +2989,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2924,8 +3018,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1381126" y="905363"/>
-          <a:ext cx="1098548" cy="37140906"/>
+          <a:off x="1397001" y="838200"/>
+          <a:ext cx="1111248" cy="33943925"/>
           <a:chOff x="2955926" y="885825"/>
           <a:chExt cx="1098548" cy="6096007"/>
         </a:xfrm>
@@ -3639,7 +3733,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3670,8 +3764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22453600" y="16851923"/>
-          <a:ext cx="4927600" cy="5238262"/>
+          <a:off x="22733000" y="15414625"/>
+          <a:ext cx="4987925" cy="4781550"/>
           <a:chOff x="11049000" y="5000626"/>
           <a:chExt cx="4981575" cy="4791074"/>
         </a:xfrm>
@@ -3765,7 +3859,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3788,14 +3882,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3858,7 +3952,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3889,8 +3983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22786975" y="9760927"/>
-          <a:ext cx="5435600" cy="4286983"/>
+          <a:off x="23069550" y="8928100"/>
+          <a:ext cx="5505450" cy="3924300"/>
           <a:chOff x="15154275" y="13173075"/>
           <a:chExt cx="5514975" cy="3933825"/>
         </a:xfrm>
@@ -4099,7 +4193,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4122,14 +4216,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4705,7 +4799,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5164,7 +5258,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5836,8 +5930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37730545" y="36159031"/>
-          <a:ext cx="2324100" cy="12973539"/>
+          <a:off x="38200445" y="33056079"/>
+          <a:ext cx="2352675" cy="11858626"/>
           <a:chOff x="37730545" y="16434954"/>
           <a:chExt cx="2324100" cy="12649201"/>
         </a:xfrm>
@@ -6032,8 +6126,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="31394400" y="10810631"/>
-          <a:ext cx="6159500" cy="3333261"/>
+          <a:off x="31784925" y="9883775"/>
+          <a:ext cx="6235700" cy="3051175"/>
           <a:chOff x="28956000" y="9877426"/>
           <a:chExt cx="6238875" cy="3047999"/>
         </a:xfrm>
@@ -6116,7 +6210,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6139,14 +6233,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6210,7 +6304,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6496,7 +6590,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6763,7 +6857,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6794,8 +6888,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4711700" y="3334199"/>
-          <a:ext cx="2667000" cy="807552"/>
+          <a:off x="4768850" y="3052112"/>
+          <a:ext cx="2701925" cy="740389"/>
           <a:chOff x="1954004" y="2713389"/>
           <a:chExt cx="2707876" cy="734661"/>
         </a:xfrm>
@@ -6974,7 +7068,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7024,7 +7118,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7074,7 +7168,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7178,7 +7272,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7228,7 +7322,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7570,8 +7664,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28773438" y="36208677"/>
-          <a:ext cx="2324099" cy="12948138"/>
+          <a:off x="29132213" y="33105725"/>
+          <a:ext cx="2352674" cy="11833225"/>
           <a:chOff x="28773438" y="16611600"/>
           <a:chExt cx="2324099" cy="12623800"/>
         </a:xfrm>
@@ -8142,7 +8236,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8200,7 +8294,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8308,8 +8402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6362700" y="688731"/>
-          <a:ext cx="4000500" cy="2644531"/>
+          <a:off x="6442075" y="635000"/>
+          <a:ext cx="4048125" cy="2416175"/>
           <a:chOff x="3971925" y="704850"/>
           <a:chExt cx="4048125" cy="2419350"/>
         </a:xfrm>
@@ -8379,7 +8473,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8402,14 +8496,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8623,7 +8717,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8794,15 +8888,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8811,7 +8905,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12938125" y="32800925"/>
+          <a:off x="12919075" y="31476950"/>
           <a:ext cx="2070100" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8917,7 +9011,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9217,7 +9311,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9246,8 +9340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3860800" y="29634229"/>
-          <a:ext cx="2695575" cy="1186961"/>
+          <a:off x="3908425" y="27095450"/>
+          <a:ext cx="2727325" cy="1079500"/>
           <a:chOff x="3765550" y="27000200"/>
           <a:chExt cx="2727325" cy="1079500"/>
         </a:xfrm>
@@ -10172,8 +10266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13881100" y="31781262"/>
-          <a:ext cx="4927600" cy="3387969"/>
+          <a:off x="14052550" y="29054425"/>
+          <a:ext cx="4991100" cy="3092450"/>
           <a:chOff x="12598400" y="30010100"/>
           <a:chExt cx="4927600" cy="3302000"/>
         </a:xfrm>
@@ -12220,8 +12314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5165725" y="27295963"/>
-          <a:ext cx="3302000" cy="1821718"/>
+          <a:off x="5229225" y="24958675"/>
+          <a:ext cx="3343275" cy="1660525"/>
           <a:chOff x="4127500" y="27520900"/>
           <a:chExt cx="3302000" cy="1765300"/>
         </a:xfrm>
@@ -12902,7 +12996,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12960,7 +13054,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13061,16 +13155,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13079,8 +13173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12211050" y="35861625"/>
-          <a:ext cx="5334000" cy="790576"/>
+          <a:off x="11896724" y="34413825"/>
+          <a:ext cx="6562725" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13211,6 +13305,22 @@
             </a:rPr>
             <a:t>层次结构提取数据。</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>kObject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>映射目录项，属性映射文件</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13218,841 +13328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="258" name="矩形 257"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7029450" y="37204650"/>
-          <a:ext cx="4305300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>硬件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="259" name="矩形 258"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7029450" y="37852350"/>
-          <a:ext cx="4305300" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>硬件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="263" name="矩形 262"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12220575" y="37223701"/>
-          <a:ext cx="1514475" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>kobject1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="矩形 263"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12220575" y="37880926"/>
-          <a:ext cx="1514475" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>kobject2</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="矩形 264"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12220575" y="38557200"/>
-          <a:ext cx="1514475" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>kobject3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>虚拟硬件</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="矩形 265"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12230100" y="39309675"/>
-          <a:ext cx="1514475" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>kobject4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>虚拟硬件</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="267" name="直接连接符 254"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="258" idx="3"/>
-          <a:endCxn id="263" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11334750" y="37499926"/>
-          <a:ext cx="885825" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="274" name="直接连接符 254"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="259" idx="3"/>
-          <a:endCxn id="264" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11334750" y="38157151"/>
-          <a:ext cx="885825" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="277" name="直接连接符 254"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="263" idx="3"/>
-          <a:endCxn id="257" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="13735050" y="36652201"/>
-          <a:ext cx="1143000" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="285" name="直接连接符 254"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="264" idx="3"/>
-          <a:endCxn id="257" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="13735050" y="36652201"/>
-          <a:ext cx="1143000" cy="1504950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="288" name="直接连接符 254"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="265" idx="3"/>
-          <a:endCxn id="257" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="13735050" y="36652201"/>
-          <a:ext cx="1143000" cy="2181224"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="293" name="直接连接符 254"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="266" idx="3"/>
-          <a:endCxn id="257" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="13744575" y="36652201"/>
-          <a:ext cx="1133475" cy="2933699"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="37999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>126293</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>73731</xdr:rowOff>
+      <xdr:colOff>50092</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>7056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14061,8 +13346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="14528093" y="35220981"/>
-          <a:ext cx="711907" cy="735894"/>
+          <a:off x="14709067" y="34154181"/>
+          <a:ext cx="711907" cy="354894"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -14123,8 +13408,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13820775" y="21433204"/>
-          <a:ext cx="4384675" cy="3633177"/>
+          <a:off x="13992225" y="19592925"/>
+          <a:ext cx="4438650" cy="3324225"/>
           <a:chOff x="14068425" y="19383375"/>
           <a:chExt cx="4438650" cy="3324225"/>
         </a:xfrm>
@@ -14290,7 +13575,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14881,8 +14166,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31369000" y="26702483"/>
-          <a:ext cx="3479801" cy="2765913"/>
+          <a:off x="31759525" y="24418925"/>
+          <a:ext cx="3524251" cy="2524125"/>
           <a:chOff x="24841200" y="20459700"/>
           <a:chExt cx="3524251" cy="2533650"/>
         </a:xfrm>
@@ -15028,8 +14313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25174574" y="26738140"/>
-          <a:ext cx="3244850" cy="2979373"/>
+          <a:off x="25488899" y="24441150"/>
+          <a:ext cx="3282950" cy="2724151"/>
           <a:chOff x="24784049" y="24917400"/>
           <a:chExt cx="3286125" cy="2724151"/>
         </a:xfrm>
@@ -15875,8 +15160,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25349199" y="30090445"/>
-          <a:ext cx="2914651" cy="1505898"/>
+          <a:off x="25663524" y="27511368"/>
+          <a:ext cx="2952751" cy="1371571"/>
           <a:chOff x="23631524" y="28046536"/>
           <a:chExt cx="2952751" cy="690389"/>
         </a:xfrm>
@@ -17375,7 +16660,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17550,7 +16835,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17607,7 +16892,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17664,7 +16949,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17721,7 +17006,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17823,8 +17108,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22555200" y="14312900"/>
-          <a:ext cx="1181100" cy="1330569"/>
+          <a:off x="22834600" y="13090525"/>
+          <a:ext cx="1196975" cy="1209675"/>
           <a:chOff x="22275800" y="14300200"/>
           <a:chExt cx="1181100" cy="1295400"/>
         </a:xfrm>
@@ -18091,8 +17376,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18529300" y="12048392"/>
-          <a:ext cx="1755045" cy="1805951"/>
+          <a:off x="18757900" y="11014075"/>
+          <a:ext cx="1777270" cy="1658191"/>
           <a:chOff x="18719800" y="13322300"/>
           <a:chExt cx="1755045" cy="1762966"/>
         </a:xfrm>
@@ -18476,7 +17761,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18533,7 +17818,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18590,7 +17875,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18647,7 +17932,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18676,8 +17961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18326094" y="14227175"/>
-          <a:ext cx="1082028" cy="3187320"/>
+          <a:off x="18554694" y="13004800"/>
+          <a:ext cx="1094728" cy="2918666"/>
           <a:chOff x="18872194" y="14392275"/>
           <a:chExt cx="1082028" cy="3109166"/>
         </a:xfrm>
@@ -19086,7 +18371,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19143,7 +18428,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19200,7 +18485,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19229,8 +18514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20916900" y="13087838"/>
-          <a:ext cx="939800" cy="2667597"/>
+          <a:off x="21177250" y="11972925"/>
+          <a:ext cx="952500" cy="2439241"/>
           <a:chOff x="20599400" y="13131800"/>
           <a:chExt cx="939800" cy="2601166"/>
         </a:xfrm>
@@ -19721,7 +19006,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19778,7 +19063,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19835,7 +19120,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19864,8 +19149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11188700" y="15330854"/>
-          <a:ext cx="1092200" cy="1533769"/>
+          <a:off x="11328400" y="14014450"/>
+          <a:ext cx="1104900" cy="1412875"/>
           <a:chOff x="16713200" y="10007600"/>
           <a:chExt cx="1092200" cy="1498600"/>
         </a:xfrm>
@@ -20156,8 +19441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9613900" y="14769123"/>
-          <a:ext cx="1143000" cy="1030654"/>
+          <a:off x="9731375" y="13506450"/>
+          <a:ext cx="1158875" cy="936625"/>
           <a:chOff x="18567400" y="9956800"/>
           <a:chExt cx="1143000" cy="1003300"/>
         </a:xfrm>
@@ -20383,8 +19668,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8115300" y="16708315"/>
-          <a:ext cx="1143000" cy="848947"/>
+          <a:off x="8213725" y="15284450"/>
+          <a:ext cx="1158875" cy="768350"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20616,8 +19901,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9639300" y="16412308"/>
-          <a:ext cx="1143000" cy="1026746"/>
+          <a:off x="9756775" y="15001875"/>
+          <a:ext cx="1158875" cy="946150"/>
           <a:chOff x="18567400" y="9956800"/>
           <a:chExt cx="1143000" cy="1003300"/>
         </a:xfrm>
@@ -20843,8 +20128,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8102600" y="14093092"/>
-          <a:ext cx="1143000" cy="845039"/>
+          <a:off x="8201025" y="12884150"/>
+          <a:ext cx="1158875" cy="777875"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -21076,8 +20361,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8115300" y="15407054"/>
-          <a:ext cx="1143000" cy="848946"/>
+          <a:off x="8213725" y="14090650"/>
+          <a:ext cx="1158875" cy="768350"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -21309,8 +20594,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8115300" y="17802469"/>
-          <a:ext cx="1143000" cy="848946"/>
+          <a:off x="8213725" y="16284575"/>
+          <a:ext cx="1158875" cy="768350"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -21542,8 +20827,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5918200" y="14194692"/>
-          <a:ext cx="1346200" cy="4494823"/>
+          <a:off x="5991225" y="12985750"/>
+          <a:ext cx="1362075" cy="4105275"/>
           <a:chOff x="4572000" y="14211300"/>
           <a:chExt cx="1346200" cy="4381500"/>
         </a:xfrm>
@@ -21869,7 +21154,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21926,7 +21211,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21983,7 +21268,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -22122,7 +21407,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -22178,7 +21463,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -24493,8 +23778,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16243300" y="46197553"/>
-          <a:ext cx="12276667" cy="3658576"/>
+          <a:off x="16443325" y="42234909"/>
+          <a:ext cx="12432242" cy="3340099"/>
           <a:chOff x="16192500" y="41200917"/>
           <a:chExt cx="12276667" cy="3471333"/>
         </a:xfrm>
@@ -27238,8 +26523,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16253883" y="41628646"/>
-          <a:ext cx="12255500" cy="4288041"/>
+          <a:off x="16453908" y="38055550"/>
+          <a:ext cx="12411075" cy="3925358"/>
           <a:chOff x="16203083" y="36872333"/>
           <a:chExt cx="12255500" cy="4064000"/>
         </a:xfrm>
@@ -28758,8 +28043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17348200" y="40170100"/>
-          <a:ext cx="2324100" cy="746103"/>
+          <a:off x="17564100" y="37665025"/>
+          <a:ext cx="2352675" cy="698478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28865,8 +28150,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16310428" y="51323352"/>
-          <a:ext cx="9696290" cy="8883871"/>
+          <a:off x="16513628" y="46917429"/>
+          <a:ext cx="9816940" cy="8118207"/>
           <a:chOff x="1422400" y="231589"/>
           <a:chExt cx="9868647" cy="8506011"/>
         </a:xfrm>
@@ -34875,6 +34160,5244 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>158488</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="846" name="组合 845"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10467975" y="35242500"/>
+          <a:ext cx="6664063" cy="4933950"/>
+          <a:chOff x="10448925" y="56759475"/>
+          <a:chExt cx="6664063" cy="4933950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="830" name="矩形 829"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16478250" y="57226200"/>
+            <a:ext cx="634738" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>设备集          </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="845" name="组合 844"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10448925" y="56759475"/>
+            <a:ext cx="6029326" cy="4933950"/>
+            <a:chOff x="10448925" y="56759475"/>
+            <a:chExt cx="6029326" cy="4933950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="797" name="矩形 796"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15344775" y="57150000"/>
+              <a:ext cx="634738" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>kSet</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="807" name="矩形 806"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15363825" y="58254900"/>
+              <a:ext cx="634738" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>kSet</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="820" name="矩形 819"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15344775" y="60007500"/>
+              <a:ext cx="634738" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>kSet</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="844" name="组合 843"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="10448925" y="56759475"/>
+              <a:ext cx="4914900" cy="4933950"/>
+              <a:chOff x="10448925" y="56759475"/>
+              <a:chExt cx="4914900" cy="4933950"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="843" name="组合 842"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="10448925" y="56759475"/>
+                <a:ext cx="4305299" cy="4933950"/>
+                <a:chOff x="10448925" y="56759475"/>
+                <a:chExt cx="4305299" cy="4933950"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="584" name="矩形 583"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10448925" y="57473850"/>
+                  <a:ext cx="733424" cy="304800"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>设备</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>2</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="585" name="矩形 584"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10448925" y="57064275"/>
+                  <a:ext cx="733424" cy="304800"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>设备</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>1</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="586" name="矩形 585"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10458450" y="57921525"/>
+                  <a:ext cx="733424" cy="304800"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>设备</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>3</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="587" name="矩形 586"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10467975" y="58397775"/>
+                  <a:ext cx="733424" cy="304800"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>设备</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>4</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="588" name="矩形 587"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10477500" y="58816875"/>
+                  <a:ext cx="733424" cy="304800"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>设备</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>5</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="842" name="组合 841"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="11182349" y="56759475"/>
+                  <a:ext cx="3571875" cy="4933950"/>
+                  <a:chOff x="11182349" y="56759475"/>
+                  <a:chExt cx="3571875" cy="4933950"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="589" name="矩形 588"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11944350" y="59397900"/>
+                    <a:ext cx="838200" cy="314325"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="3175">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>虚拟设备</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="708" name="矩形 707"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11944350" y="59921775"/>
+                    <a:ext cx="838200" cy="314325"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="3175">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>虚拟设备</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="709" name="矩形 708"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11944350" y="60398025"/>
+                    <a:ext cx="838200" cy="314325"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="3175">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>虚拟设备</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="710" name="矩形 709"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11953875" y="60883800"/>
+                    <a:ext cx="838200" cy="314325"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="3175">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>虚拟设备</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>4</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="711" name="矩形 710"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11953875" y="61379100"/>
+                    <a:ext cx="838200" cy="314325"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="3175">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>虚拟设备</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="841" name="组合 840"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="11182349" y="56759475"/>
+                    <a:ext cx="3571875" cy="4776788"/>
+                    <a:chOff x="11182349" y="56759475"/>
+                    <a:chExt cx="3571875" cy="4776788"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="766" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="585" idx="3"/>
+                      <a:endCxn id="712" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="11182349" y="56916638"/>
+                      <a:ext cx="2057400" cy="300037"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="769" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="584" idx="3"/>
+                      <a:endCxn id="729" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="11182349" y="57354788"/>
+                      <a:ext cx="2057400" cy="271462"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="772" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="586" idx="3"/>
+                      <a:endCxn id="738" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="11191874" y="57821513"/>
+                      <a:ext cx="2047875" cy="252412"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="776" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="587" idx="3"/>
+                      <a:endCxn id="741" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="11201399" y="58297763"/>
+                      <a:ext cx="2047875" cy="252412"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="779" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="588" idx="3"/>
+                      <a:endCxn id="744" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="11210924" y="58735913"/>
+                      <a:ext cx="2038350" cy="233362"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="782" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="589" idx="3"/>
+                      <a:endCxn id="747" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="12782550" y="59202638"/>
+                      <a:ext cx="466724" cy="352425"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="840" name="组合 839"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="12782550" y="56759475"/>
+                      <a:ext cx="1971674" cy="4457701"/>
+                      <a:chOff x="12782550" y="56759475"/>
+                      <a:chExt cx="1971674" cy="4457701"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="713" name="组合 712"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13239749" y="56759475"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="579" name="矩形 578"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="712" name="矩形 711"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="727" name="组合 726"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13239749" y="57197625"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="728" name="矩形 727"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="729" name="矩形 728"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="736" name="组合 735"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13239749" y="57664350"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="737" name="矩形 736"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="738" name="矩形 737"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="739" name="组合 738"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13249274" y="58140600"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="740" name="矩形 739"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="741" name="矩形 740"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="742" name="组合 741"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13249274" y="58578750"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="743" name="矩形 742"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="744" name="矩形 743"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="745" name="组合 744"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13249274" y="59045475"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="746" name="矩形 745"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="747" name="矩形 746"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="748" name="组合 747"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13249274" y="59521725"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="749" name="矩形 748"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="750" name="矩形 749"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="751" name="组合 750"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13249274" y="59959875"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="752" name="矩形 751"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="753" name="矩形 752"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="754" name="组合 753"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13249274" y="60426600"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="755" name="矩形 754"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="756" name="矩形 755"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="757" name="组合 756"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="13258799" y="60902850"/>
+                        <a:ext cx="1495425" cy="314326"/>
+                        <a:chOff x="12944475" y="56949975"/>
+                        <a:chExt cx="950218" cy="314326"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="758" name="矩形 757"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="13449005" y="57016650"/>
+                          <a:ext cx="403323" cy="190500"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>kObject</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="759" name="矩形 758"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="12944475" y="56949975"/>
+                          <a:ext cx="950218" cy="314326"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                          <a:prstDash val="dash"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>设备结构体        </a:t>
+                          </a:r>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:cxnSp macro="">
+                    <xdr:nvCxnSpPr>
+                      <xdr:cNvPr id="785" name="直线连接符 159"/>
+                      <xdr:cNvCxnSpPr>
+                        <a:stCxn id="708" idx="3"/>
+                        <a:endCxn id="750" idx="1"/>
+                      </xdr:cNvCxnSpPr>
+                    </xdr:nvCxnSpPr>
+                    <xdr:spPr>
+                      <a:xfrm flipV="1">
+                        <a:off x="12782550" y="59678888"/>
+                        <a:ext cx="466724" cy="400050"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="line">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175">
+                        <a:prstDash val="dash"/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="1">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="tx1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                  </xdr:cxnSp>
+                </xdr:grpSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="788" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="709" idx="3"/>
+                      <a:endCxn id="753" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="12782550" y="60117038"/>
+                      <a:ext cx="466724" cy="438150"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="791" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="710" idx="3"/>
+                      <a:endCxn id="756" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="12792075" y="60583763"/>
+                      <a:ext cx="457199" cy="457200"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="794" name="直线连接符 159"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="711" idx="3"/>
+                      <a:endCxn id="759" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm flipV="1">
+                      <a:off x="12792075" y="61060013"/>
+                      <a:ext cx="466724" cy="476250"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175">
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+              </xdr:grpSp>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="798" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="712" idx="3"/>
+                <a:endCxn id="797" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14735174" y="56916638"/>
+                <a:ext cx="609601" cy="328612"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="801" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="729" idx="3"/>
+                <a:endCxn id="797" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="14735174" y="57245250"/>
+                <a:ext cx="609601" cy="109538"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="804" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="738" idx="3"/>
+                <a:endCxn id="797" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="14735174" y="57245250"/>
+                <a:ext cx="609601" cy="576263"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="808" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="741" idx="3"/>
+                <a:endCxn id="807" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14744699" y="58297763"/>
+                <a:ext cx="619126" cy="52387"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="811" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="744" idx="3"/>
+                <a:endCxn id="807" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="14744699" y="58350150"/>
+                <a:ext cx="619126" cy="385763"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="814" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="747" idx="3"/>
+                <a:endCxn id="807" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="14744699" y="58350150"/>
+                <a:ext cx="619126" cy="852488"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="817" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="750" idx="3"/>
+                <a:endCxn id="807" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="14744699" y="58350150"/>
+                <a:ext cx="619126" cy="1328738"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="821" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="753" idx="3"/>
+                <a:endCxn id="820" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="14744699" y="60102750"/>
+                <a:ext cx="600076" cy="14288"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="824" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="756" idx="3"/>
+                <a:endCxn id="820" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="14744699" y="60102750"/>
+                <a:ext cx="600076" cy="481013"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="827" name="直线连接符 159"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="759" idx="3"/>
+                <a:endCxn id="820" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="14754224" y="60102750"/>
+                <a:ext cx="590551" cy="957263"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="831" name="直线连接符 159"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="797" idx="3"/>
+              <a:endCxn id="830" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15979513" y="57245250"/>
+              <a:ext cx="498737" cy="76200"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="834" name="直线连接符 159"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="830" idx="1"/>
+              <a:endCxn id="807" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000" flipV="1">
+              <a:off x="15998564" y="57321450"/>
+              <a:ext cx="479687" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="837" name="直线连接符 159"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="830" idx="1"/>
+              <a:endCxn id="820" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000" flipV="1">
+              <a:off x="15979514" y="57321450"/>
+              <a:ext cx="498737" cy="2781300"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>98295</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="847" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="830" idx="0"/>
+          <a:endCxn id="257" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="15639191" y="34533747"/>
+          <a:ext cx="714375" cy="1636582"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="851" name="矩形 850"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839700" y="33261300"/>
+          <a:ext cx="933451" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sys</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="854" name="矩形 853"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13896976" y="33051750"/>
+          <a:ext cx="495300" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="855" name="矩形 854"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13896976" y="33413700"/>
+          <a:ext cx="495300" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="856" name="矩形 855"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14525626" y="33432750"/>
+          <a:ext cx="495300" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="857" name="矩形 856"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14544676" y="33756600"/>
+          <a:ext cx="495300" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="858" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="851" idx="3"/>
+          <a:endCxn id="854" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13773151" y="33175575"/>
+          <a:ext cx="123825" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="861" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="851" idx="3"/>
+          <a:endCxn id="855" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13773151" y="33385125"/>
+          <a:ext cx="123825" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="864" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="855" idx="3"/>
+          <a:endCxn id="856" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14392276" y="33537525"/>
+          <a:ext cx="133350" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="867" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="855" idx="3"/>
+          <a:endCxn id="857" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14392276" y="33537525"/>
+          <a:ext cx="152400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="872" name="矩形 871"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716124" y="32708850"/>
+          <a:ext cx="638175" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="874" name="矩形 873"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716124" y="32956500"/>
+          <a:ext cx="638175" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="875" name="矩形 874"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392400" y="33213675"/>
+          <a:ext cx="638175" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="876" name="矩形 875"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392400" y="33470850"/>
+          <a:ext cx="638175" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="877" name="矩形 876"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15401925" y="33728025"/>
+          <a:ext cx="638175" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="878" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="854" idx="3"/>
+          <a:endCxn id="872" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14392276" y="32818388"/>
+          <a:ext cx="323848" cy="357187"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="881" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="854" idx="3"/>
+          <a:endCxn id="874" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14392276" y="33066038"/>
+          <a:ext cx="323848" cy="109537"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="884" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="856" idx="3"/>
+          <a:endCxn id="875" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15020926" y="33323213"/>
+          <a:ext cx="371474" cy="233362"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="887" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="856" idx="3"/>
+          <a:endCxn id="876" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15020926" y="33556575"/>
+          <a:ext cx="371474" cy="23813"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="890" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="856" idx="3"/>
+          <a:endCxn id="877" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15020926" y="33556575"/>
+          <a:ext cx="380999" cy="280988"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="899" name="矩形 898"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17506949" y="35204400"/>
+          <a:ext cx="1438275" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>kObject</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="900" name="矩形 899"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17716500" y="35499676"/>
+          <a:ext cx="1066799" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>kobj_type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="901" name="矩形 900"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19364325" y="34842450"/>
+          <a:ext cx="857250" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>attribute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-name</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="902" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="579" idx="3"/>
+          <a:endCxn id="899" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14687551" y="35404425"/>
+          <a:ext cx="2819398" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="906" name="矩形 905"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19364325" y="35575875"/>
+          <a:ext cx="857250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>attribute</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="907" name="矩形 906"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354800" y="35880675"/>
+          <a:ext cx="857250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>attribute</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="908" name="矩形 907"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354800" y="36185475"/>
+          <a:ext cx="857250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>attribute</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="909" name="矩形 908"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354800" y="36480750"/>
+          <a:ext cx="857250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>attribute</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="910" name="矩形 909"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17754600" y="35709225"/>
+          <a:ext cx="990600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>attributes</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="911" name="直线连接符 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="910" idx="3"/>
+          <a:endCxn id="901" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18745200" y="35209163"/>
+          <a:ext cx="619125" cy="604837"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="914" name="文本框 211"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16583025" y="36071175"/>
+          <a:ext cx="2286000" cy="790576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>同类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>ktype</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>kobject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>具有默认相同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>attributes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>kobject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>后可以调用方法对</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>kobject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>属性进行增删</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="915" name="文本框 211"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14068425" y="32432625"/>
+          <a:ext cx="1438275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>对应的是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>attribute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>      </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="916" name="文本框 211"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13344526" y="32775525"/>
+          <a:ext cx="1123950" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>对应的是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>kobject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>       </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -35199,21 +39722,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" topLeftCell="AK243" workbookViewId="0">
+      <selection activeCell="BM231" sqref="BM231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="45" width="3.33203125" style="1"/>
-    <col min="46" max="46" width="3.33203125" style="3"/>
-    <col min="47" max="16384" width="3.33203125" style="1"/>
+    <col min="1" max="45" width="3.375" style="1"/>
+    <col min="46" max="46" width="3.375" style="3"/>
+    <col min="47" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:47" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="12:47" s="4" customFormat="1">
       <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
@@ -35230,96 +39753,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -35335,5 +39858,173 @@
     <hyperlink ref="A12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>